--- a/database/seeders/excel/branch_niise.xlsx
+++ b/database/seeders/excel/branch_niise.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\ifics_be\storage\app\private\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2C8587-E018-490F-876B-5ED65A257BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C110CA-8533-4074-8BAC-02FC6FBF0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9578E655-562C-4104-B8F7-418F8D65ADB7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="102">
   <si>
     <t>Johor</t>
   </si>
@@ -395,6 +395,12 @@
   </si>
   <si>
     <t>Kuantan</t>
+  </si>
+  <si>
+    <t>PTJ</t>
+  </si>
+  <si>
+    <t>Cawangan</t>
   </si>
 </sst>
 </file>
@@ -840,19 +846,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C254406F-12FB-4ABC-BFDB-626D932D93E0}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="68.28515625" customWidth="1"/>
-    <col min="3" max="3" width="75.85546875" customWidth="1"/>
+    <col min="3" max="3" width="131.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="300" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -862,8 +868,11 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -873,8 +882,11 @@
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -884,8 +896,11 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -895,32 +910,44 @@
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="81" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="81" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="54" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="330" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="330" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -930,8 +957,11 @@
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -941,24 +971,33 @@
       <c r="C9" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -968,8 +1007,11 @@
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -979,16 +1021,22 @@
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="315" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -998,8 +1046,11 @@
       <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1009,24 +1060,33 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="54" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1036,8 +1096,11 @@
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1047,8 +1110,11 @@
       <c r="C20" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1058,8 +1124,11 @@
       <c r="C21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1069,16 +1138,22 @@
       <c r="C22" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="54" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>99</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="210" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1088,8 +1163,11 @@
       <c r="C24" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="54" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1099,8 +1177,11 @@
       <c r="C25" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="135" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1110,8 +1191,11 @@
       <c r="C26" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -1121,8 +1205,11 @@
       <c r="C27" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="165" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -1132,8 +1219,11 @@
       <c r="C28" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="150" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -1143,8 +1233,11 @@
       <c r="C29" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>57</v>
       </c>
@@ -1154,8 +1247,11 @@
       <c r="C30" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="195" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>57</v>
       </c>
@@ -1165,16 +1261,22 @@
       <c r="C31" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="54" x14ac:dyDescent="0.25">
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>57</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="240" x14ac:dyDescent="0.25">
+      <c r="D32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -1184,8 +1286,11 @@
       <c r="C33" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="D33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>68</v>
       </c>
@@ -1195,8 +1300,11 @@
       <c r="C34" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="D34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -1206,8 +1314,11 @@
       <c r="C35" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="D35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -1217,8 +1328,11 @@
       <c r="C36" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -1228,8 +1342,11 @@
       <c r="C37" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="D37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -1239,8 +1356,11 @@
       <c r="C38" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -1250,8 +1370,11 @@
       <c r="C39" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="270" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -1261,8 +1384,11 @@
       <c r="C40" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -1272,8 +1398,11 @@
       <c r="C41" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -1283,8 +1412,11 @@
       <c r="C42" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -1294,8 +1426,11 @@
       <c r="C43" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -1305,8 +1440,11 @@
       <c r="C44" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>68</v>
       </c>
@@ -1316,8 +1454,11 @@
       <c r="C45" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>68</v>
       </c>
@@ -1327,8 +1468,11 @@
       <c r="C46" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>68</v>
       </c>
@@ -1338,8 +1482,11 @@
       <c r="C47" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="300" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>68</v>
       </c>
@@ -1349,80 +1496,110 @@
       <c r="C48" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>68</v>
       </c>
       <c r="B49" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>68</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="D50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>68</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="54" x14ac:dyDescent="0.25">
+      <c r="D51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>68</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="D52" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>68</v>
       </c>
       <c r="B53" s="3" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="D53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>68</v>
       </c>
       <c r="B54" s="3" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>68</v>
       </c>
       <c r="B55" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="81" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>68</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>68</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="225" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -1432,8 +1609,11 @@
       <c r="C58" s="1" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="180" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>96</v>
       </c>
@@ -1442,6 +1622,9 @@
       </c>
       <c r="C59" s="1" t="s">
         <v>98</v>
+      </c>
+      <c r="D59" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/excel/branch_niise.xlsx
+++ b/database/seeders/excel/branch_niise.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C110CA-8533-4074-8BAC-02FC6FBF0AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C41671-3ADA-4CF1-BE15-FB7A16A7FDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9578E655-562C-4104-B8F7-418F8D65ADB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$54</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="98">
   <si>
     <t>Johor</t>
   </si>
@@ -99,9 +102,6 @@
     <t xml:space="preserve">
 1-UTC 02, Aras 1, Bangunan Ukir Square, Jalan Kuala Ketil, 
 08000 Sungai Petani, Kedah Darul Aman</t>
-  </si>
-  <si>
-    <t>Jabatan Imigresen Negeri Kedah</t>
   </si>
   <si>
     <t>Kelantan</t>
@@ -122,9 +122,6 @@
     <t xml:space="preserve">
 Kompleks ICQS Bukit Bunga, 
 17700 Tanah Merah, Kelantan </t>
-  </si>
-  <si>
-    <t>Jabatan Imigresen Negeri Kelantan</t>
   </si>
   <si>
     <t>Melaka</t>
@@ -149,9 +146,6 @@
     <t>Pejabat Imigresen Pelabuhan Melaka (ICQS)</t>
   </si>
   <si>
-    <t>Jabatan Imigresen Negeri Melaka</t>
-  </si>
-  <si>
     <t>Negeri Sembilan</t>
   </si>
   <si>
@@ -256,10 +250,6 @@
 64000 Sepang</t>
   </si>
   <si>
-    <t xml:space="preserve">Jabatan Imigresen Malaysia 
-Wilayah Persekutuan Kuala Lumpur, </t>
-  </si>
-  <si>
     <t>Aras LG, 1,2 &amp; 5, Kompleks Kementerian Dalam Negeri (KDN), 
 No 69, Jalan Sri Hartamas 1, Off Jalan Duta,
 50550 Kuala Lumpur</t>
@@ -272,14 +262,7 @@
 57000 Kuala Lumpur</t>
   </si>
   <si>
-    <t>Jabatan Imigresen WP Kuala Lumpur</t>
-  </si>
-  <si>
     <t>Wilayah Persekutuan Labuan</t>
-  </si>
-  <si>
-    <t>Jabatan Imigresen Malaysia
-Wilayah Persekutuan Labuan</t>
   </si>
   <si>
     <t>Unit E002, Tingkat 1, Aras Podium,
@@ -401,6 +384,12 @@
   </si>
   <si>
     <t>Cawangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jabatan Imigresen Malaysia Wilayah Persekutuan Kuala Lumpur, </t>
+  </si>
+  <si>
+    <t>Jabatan Imigresen Malaysia Wilayah Persekutuan Labuan</t>
   </si>
 </sst>
 </file>
@@ -846,10 +835,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C254406F-12FB-4ABC-BFDB-626D932D93E0}">
-  <dimension ref="A1:D59"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D59" sqref="D59"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -869,7 +859,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="195" x14ac:dyDescent="0.25">
@@ -883,7 +873,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -897,7 +887,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -911,7 +901,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="81" x14ac:dyDescent="0.25">
@@ -922,7 +912,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.25">
@@ -933,7 +923,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -944,10 +934,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="330" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="330" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -958,7 +948,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="225" x14ac:dyDescent="0.25">
@@ -972,662 +962,614 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="270" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="270" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="315" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="315" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="225" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>93</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="225" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="210" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>35</v>
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s">
-        <v>37</v>
+        <v>42</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="135" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>48</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="210" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>45</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C25" t="s">
-        <v>47</v>
+        <v>54</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="D25" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" t="s">
-        <v>49</v>
+        <v>54</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>57</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D29" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>70</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D33" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="D34" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D35" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" t="s">
+        <v>74</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
         <v>76</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B39" t="s">
         <v>77</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
         <v>78</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D41" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B42" t="s">
-        <v>81</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D42" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>62</v>
+      </c>
+      <c r="B44" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>62</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D45" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" t="s">
-        <v>85</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>68</v>
-      </c>
-      <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="D47" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>68</v>
-      </c>
-      <c r="B48" t="s">
-        <v>87</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" t="s">
-        <v>88</v>
+        <v>62</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="D49" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>68</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="D50" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D51" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>68</v>
-      </c>
-      <c r="B52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>87</v>
+      </c>
+      <c r="B53" t="s">
+        <v>88</v>
+      </c>
+      <c r="C53" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>81</v>
-      </c>
       <c r="D53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="3" t="s">
         <v>90</v>
       </c>
+      <c r="B54" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>92</v>
+      </c>
       <c r="D54" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>68</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D55" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>68</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>68</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>93</v>
-      </c>
-      <c r="B58" t="s">
         <v>94</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D58" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>96</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D59" t="s">
-        <v>100</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D54" xr:uid="{C254406F-12FB-4ABC-BFDB-626D932D93E0}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Cawangan"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database/seeders/excel/branch_niise.xlsx
+++ b/database/seeders/excel/branch_niise.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C41671-3ADA-4CF1-BE15-FB7A16A7FDE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07EF0272-43A0-476E-987A-E796E8EB2DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9578E655-562C-4104-B8F7-418F8D65ADB7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="96">
   <si>
     <t>Johor</t>
   </si>
@@ -205,9 +205,6 @@
     <t>Aras 1 &amp; 2, Kompleks Kementerian Dalam Negeri, Persiaran Wawasan, Mukim Seriab 01000 Kangar, Perlis Indera Kayangan</t>
   </si>
   <si>
-    <t>Pulau Pinang</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jabatan Imigresen Malaysia Negeri Pulau Pinang </t>
   </si>
   <si>
@@ -239,12 +236,6 @@
 20200 Kuala Terengganu</t>
   </si>
   <si>
-    <t>KLIA</t>
-  </si>
-  <si>
-    <t>Pejabat Imigresen Lapangan Terbang Antarabangsa Kuala Lumpur (KLIA)</t>
-  </si>
-  <si>
     <t>Tingkat Bawah, 
 Bangunan Airport Management Centre (AMC)
 64000 Sepang</t>
@@ -377,9 +368,6 @@
 93050 Kuching Sarawak</t>
   </si>
   <si>
-    <t>Kuantan</t>
-  </si>
-  <si>
     <t>PTJ</t>
   </si>
   <si>
@@ -390,6 +378,12 @@
   </si>
   <si>
     <t>Jabatan Imigresen Malaysia Wilayah Persekutuan Labuan</t>
+  </si>
+  <si>
+    <t>Wilayah Persekutuan Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>Penang</t>
   </si>
 </sst>
 </file>
@@ -838,12 +832,13 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="63.42578125" customWidth="1"/>
     <col min="2" max="2" width="68.28515625" customWidth="1"/>
     <col min="3" max="3" width="131.140625" customWidth="1"/>
   </cols>
@@ -859,7 +854,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="195" x14ac:dyDescent="0.25">
@@ -873,7 +868,7 @@
         <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -887,7 +882,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="180" x14ac:dyDescent="0.25">
@@ -901,7 +896,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="81" x14ac:dyDescent="0.25">
@@ -912,7 +907,7 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="54" x14ac:dyDescent="0.25">
@@ -923,7 +918,7 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -934,10 +929,10 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="330" hidden="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -948,7 +943,7 @@
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="225" x14ac:dyDescent="0.25">
@@ -962,10 +957,10 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="270" hidden="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -976,7 +971,7 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -990,10 +985,10 @@
         <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="315" hidden="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -1004,7 +999,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -1018,7 +1013,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1029,10 +1024,10 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1043,10 +1038,10 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="225" hidden="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -1057,7 +1052,7 @@
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1071,7 +1066,7 @@
         <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="135" x14ac:dyDescent="0.25">
@@ -1085,21 +1080,21 @@
         <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="210" hidden="1" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -1110,10 +1105,10 @@
         <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -1124,442 +1119,442 @@
         <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="D22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>50</v>
       </c>
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>51</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="D24" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="D26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>94</v>
       </c>
       <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="D29" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
-        <v>65</v>
-      </c>
       <c r="C30" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B37" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D37" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D39" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D42" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D43" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D44" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D45" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D46" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D47" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D48" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D49" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D50" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D51" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D52" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B53" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D53" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>87</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D54" t="s">
         <v>90</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/database/seeders/excel/branch_niise.xlsx
+++ b/database/seeders/excel/branch_niise.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71FB9D8-41C6-4521-AD0B-031B6DC96D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$54</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$53</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="97">
   <si>
     <t>Johor</t>
   </si>
@@ -374,8 +376,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,7 +406,13 @@
     </fill>
   </fills>
   <borders count="4">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
@@ -415,6 +423,8 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -423,6 +433,9 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -431,9 +444,11 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -471,6 +486,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -479,10 +502,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -762,25 +785,28 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="B43">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.42578" customWidth="1"/>
-    <col min="2" max="2" width="68.28516" customWidth="1"/>
-    <col min="3" max="3" width="131.1406" customWidth="1"/>
+    <col min="1" max="1" width="63.42578125" customWidth="1"/>
+    <col min="2" max="2" width="68.28515625" customWidth="1"/>
+    <col min="3" max="3" width="131.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="42.75">
+    <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="42.75">
+    <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -808,7 +834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="42.75">
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -822,7 +848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" ht="42.75">
+    <row r="4" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -836,7 +862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -847,7 +873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -858,7 +884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -869,7 +895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" ht="26.25" customHeight="1">
+    <row r="8" spans="1:4" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -883,7 +909,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" ht="42.75">
+    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -897,7 +923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" ht="21.75" customHeight="1">
+    <row r="10" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -911,7 +937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" ht="42.75">
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -925,7 +951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -939,7 +965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -953,7 +979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -964,7 +990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" ht="33.75" customHeight="1">
+    <row r="15" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>30</v>
       </c>
@@ -978,7 +1004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="34.5" customHeight="1">
+    <row r="16" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -992,7 +1018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -1006,7 +1032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" ht="28.5">
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>33</v>
       </c>
@@ -1020,7 +1046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" ht="81" customHeight="1">
+    <row r="19" spans="1:4" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1031,7 +1057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" ht="23.25" customHeight="1">
+    <row r="20" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -1045,7 +1071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" ht="33.75" customHeight="1">
+    <row r="21" spans="1:4" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>44</v>
       </c>
@@ -1059,7 +1085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" ht="72.75" customHeight="1">
+    <row r="22" spans="1:4" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -1073,7 +1099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" ht="62.25" customHeight="1">
+    <row r="23" spans="1:4" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1087,7 +1113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" ht="61.5" customHeight="1">
+    <row r="24" spans="1:4" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>53</v>
       </c>
@@ -1101,7 +1127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" ht="42.75">
+    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1115,7 +1141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" ht="40.5" customHeight="1">
+    <row r="26" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1129,7 +1155,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" ht="28.5">
+    <row r="27" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>56</v>
       </c>
@@ -1143,7 +1169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" ht="39" customHeight="1">
+    <row r="28" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1157,7 +1183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" ht="19.5" customHeight="1">
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>65</v>
       </c>
@@ -1171,7 +1197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" ht="42.75">
+    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -1185,7 +1211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" ht="57">
+    <row r="31" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>65</v>
       </c>
@@ -1199,7 +1225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" ht="57">
+    <row r="32" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>65</v>
       </c>
@@ -1213,7 +1239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" ht="57">
+    <row r="33" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>65</v>
       </c>
@@ -1227,7 +1253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" ht="57">
+    <row r="34" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>65</v>
       </c>
@@ -1241,7 +1267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" ht="42.75">
+    <row r="35" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -1255,7 +1281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" ht="57">
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>65</v>
       </c>
@@ -1269,7 +1295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" ht="57">
+    <row r="37" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -1283,7 +1309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" ht="57">
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>65</v>
       </c>
@@ -1297,7 +1323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" ht="57">
+    <row r="39" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>65</v>
       </c>
@@ -1311,7 +1337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" ht="57">
+    <row r="40" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -1325,7 +1351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" ht="57">
+    <row r="41" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>65</v>
       </c>
@@ -1339,7 +1365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" ht="57">
+    <row r="42" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>65</v>
       </c>
@@ -1353,7 +1379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" ht="57">
+    <row r="43" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>65</v>
       </c>
@@ -1367,7 +1393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -1378,7 +1404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>65</v>
       </c>
@@ -1389,7 +1415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
@@ -1400,7 +1426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>65</v>
       </c>
@@ -1411,107 +1437,97 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>65</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="D48" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>65</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>65</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D50" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>65</v>
       </c>
-      <c r="B51" s="3" t="s">
-        <v>82</v>
+      <c r="B51" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="D51" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>65</v>
-      </c>
-      <c r="B52" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="B52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="D52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" hidden="1" ht="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>90</v>
-      </c>
-      <c r="B53" t="s">
-        <v>91</v>
+        <v>93</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D53" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" hidden="1" ht="45">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>93</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>95</v>
+        <v>14</v>
+      </c>
+      <c r="B54" t="s">
+        <v>96</v>
       </c>
       <c r="D54" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="s">
-        <v>14</v>
-      </c>
-      <c r="B55" t="s">
-        <v>96</v>
-      </c>
-      <c r="D55" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D54">
+  <autoFilter ref="A1:D53" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
         <filter val="Cawangan"/>
       </filters>
     </filterColumn>
   </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database/seeders/excel/branch_niise.xlsx
+++ b/database/seeders/excel/branch_niise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F71FB9D8-41C6-4521-AD0B-031B6DC96D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C43CF2-D342-4C56-BB7D-9446CC16B3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$48</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="95">
   <si>
     <t>Johor</t>
   </si>
@@ -302,9 +302,6 @@
     <t>Bahagian Visa, Pas dan Permit</t>
   </si>
   <si>
-    <t xml:space="preserve">Bahagian Keselamatan dan Pasport </t>
-  </si>
-  <si>
     <t>Jabatan Imigresen Malaysia, 
 No. 17, Tingkat 3 (Tower A) Menara Ikhlas, Persiaran Perdana, Presint 3, 
 62100 Putrajaya</t>
@@ -341,9 +338,6 @@
   </si>
   <si>
     <t>Bahagian Pengurusan Depot dan Tahanan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bahagian Perisikan dan Operasi Khas </t>
   </si>
   <si>
     <t>Bahagian Atipsom dan AMLA</t>
@@ -793,10 +787,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B37" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
+      <selection activeCell="B46" sqref="A46:XFD46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,10 +1266,10 @@
         <v>65</v>
       </c>
       <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
@@ -1286,7 +1280,7 @@
         <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>71</v>
@@ -1300,7 +1294,7 @@
         <v>65</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>71</v>
@@ -1314,7 +1308,7 @@
         <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>71</v>
@@ -1328,7 +1322,7 @@
         <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>71</v>
@@ -1342,7 +1336,7 @@
         <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>71</v>
@@ -1356,7 +1350,7 @@
         <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>71</v>
@@ -1370,7 +1364,7 @@
         <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>71</v>
@@ -1384,7 +1378,7 @@
         <v>65</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>71</v>
@@ -1398,7 +1392,7 @@
         <v>65</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D44" t="s">
         <v>6</v>
@@ -1408,8 +1402,8 @@
       <c r="A45" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>73</v>
+      <c r="B45" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
@@ -1419,109 +1413,54 @@
       <c r="A46" t="s">
         <v>65</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>74</v>
+      <c r="B46" s="7" t="s">
+        <v>87</v>
       </c>
       <c r="D46" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>65</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="D47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>65</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>87</v>
+        <v>91</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>65</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>88</v>
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
       </c>
       <c r="D49" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="D51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>90</v>
-      </c>
-      <c r="B52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D53" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:D53" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:D48" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
         <filter val="Cawangan"/>

--- a/database/seeders/excel/branch_niise.xlsx
+++ b/database/seeders/excel/branch_niise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73C43CF2-D342-4C56-BB7D-9446CC16B3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2D85CD-E1D8-4F02-9EAD-F4FEF30B9B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$47</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="94">
   <si>
     <t>Johor</t>
   </si>
@@ -335,9 +335,6 @@
   </si>
   <si>
     <t>Bahagian Keselamatan dan Pasport</t>
-  </si>
-  <si>
-    <t>Bahagian Pengurusan Depot dan Tahanan</t>
   </si>
   <si>
     <t>Bahagian Atipsom dan AMLA</t>
@@ -787,10 +784,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B36" workbookViewId="0">
-      <selection activeCell="B46" sqref="A46:XFD46"/>
+      <selection activeCell="B45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1402,65 +1399,54 @@
       <c r="A45" t="s">
         <v>65</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="7" t="s">
         <v>86</v>
       </c>
       <c r="D45" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>65</v>
-      </c>
-      <c r="B46" s="7" t="s">
         <v>87</v>
       </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>89</v>
+      </c>
       <c r="D46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" t="s">
-        <v>89</v>
+        <v>90</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D47" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>91</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
         <v>93</v>
       </c>
       <c r="D48" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>14</v>
-      </c>
-      <c r="B49" t="s">
-        <v>94</v>
-      </c>
-      <c r="D49" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D48" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A1:D47" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3">
       <filters>
         <filter val="Cawangan"/>

--- a/database/seeders/excel/branch_niise.xlsx
+++ b/database/seeders/excel/branch_niise.xlsx
@@ -1,665 +1,734 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
-  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\niise_helpdesk\be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAA4DAF-A0BA-4E17-9891-C24E9EAAD425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Senarai PIN dan Cawangan" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <si>
+    <t xml:space="preserve">KOMPLEKS KDN SETIA TROPIKA </t>
+  </si>
+  <si>
+    <t>JOHOR</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN PASI GUDANG</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN TANJUNG PENGELIH</t>
+  </si>
+  <si>
+    <t>PELABUHAN BATU PAHAT</t>
+  </si>
+  <si>
+    <t>POS IMIGRESEN STULANG LAUT</t>
+  </si>
+  <si>
+    <t>TERMINAL FERI ANTARABANGSA KUKUP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TERMINAL FERI ANTARABANGSA  PUTERI HARBOUR</t>
+  </si>
+  <si>
+    <t>TERMINAL FERI MINYAK BEKU BATU PAHAT</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN TANJUNG PELEPAS</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN TANJUNG BELUNGKOR</t>
+  </si>
+  <si>
+    <t>DESARU COAST</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN WOOTLANDS TRAIN CHECK POINT (WTCP).SINGAPURA</t>
+  </si>
+  <si>
+    <t>DEPOT IMIGRESEN PEKAN NANAS</t>
+  </si>
+  <si>
+    <t>UNIT KAWALAN JETI PENUMPANG BANGUNAN JABATAN LAUT WILAYAH SELATAN,MUAR</t>
+  </si>
+  <si>
+    <t>BANGUNAN SULTAN ISKANDAR (BSI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEJABAT IMIGRESEN SEGAMAT </t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN PAGOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PEJABAT IMIGRESEN  MUAR</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN MERSING</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN KULAI</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN KUKUP</t>
+  </si>
+  <si>
+    <t>UTC JOHOR BAHRU</t>
+  </si>
+  <si>
+    <t>UTC PASIR GUDANG</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN BATU PAHAT</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN KLUANG</t>
+  </si>
   <si>
     <t>KOMPLEKS KDN ALOR SETAR</t>
   </si>
   <si>
+    <t>KEDAH</t>
+  </si>
+  <si>
+    <t>POS IMIGRESEN JETI KUAH</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN KULIM</t>
+  </si>
+  <si>
+    <t>LTA LANGKAWI</t>
+  </si>
+  <si>
+    <t>KOMPLEKS IMM KOTA PUTRA,DURIAN BURUNG</t>
+  </si>
+  <si>
+    <t>UTC SUNGAI PETANI</t>
+  </si>
+  <si>
+    <t>UTC KEDAH</t>
+  </si>
+  <si>
+    <t>POS IMIGRESEN TELAGA HARBOUR PARK</t>
+  </si>
+  <si>
+    <t>KOMPLES IQCS BUKIT KAYU HITAM</t>
+  </si>
+  <si>
+    <t>POS IMIGRESEN TANJUNG LEMBUNG</t>
+  </si>
+  <si>
+    <t>KOMPLEKS KDN KEDAH</t>
+  </si>
+  <si>
     <t>PEJABAT IMIGRESEN KOTA BHARU</t>
   </si>
   <si>
+    <t>KELANTAN</t>
+  </si>
+  <si>
+    <t>KOMPLEKS ICQS PANGKALAN KUBUR</t>
+  </si>
+  <si>
+    <t>KOMPLEKS ICQS RANTAU PANJANG</t>
+  </si>
+  <si>
+    <t>LT SULTAN ISMAIL PETRA</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN PELABUHAN TOK BALI</t>
+  </si>
+  <si>
+    <t>UTC KELANTAN</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN GUA MUSANG</t>
+  </si>
+  <si>
+    <t>WISMA YAKIN (BAHAGIAN PENGUATKUASA)</t>
+  </si>
+  <si>
+    <t>KOMPLEKS ICQS BUKIT BUNGA,TANAH MERAH</t>
+  </si>
+  <si>
+    <t>KOMPLEKS KDN MELAKA</t>
+  </si>
+  <si>
+    <t>MELAKA</t>
+  </si>
+  <si>
+    <t>UTC MELAKA</t>
+  </si>
+  <si>
+    <t>PELABUHAN KUALA LINGGI</t>
+  </si>
+  <si>
+    <t>PELABUHAN MELAKA</t>
+  </si>
+  <si>
+    <t>LTA BATU BERENDAM</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN SEREMBAN</t>
+  </si>
+  <si>
+    <t>NEGERI SEMBILAN</t>
+  </si>
+  <si>
+    <t>UTC SEREMBAN</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN SENAWANG</t>
+  </si>
+  <si>
+    <t>DEPOT IMIGRESEN LENGGENG</t>
+  </si>
+  <si>
+    <t>JETI PENUMPANG PORT DICKSON</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN PORT DICKSON</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN JEMPOL</t>
+  </si>
+  <si>
+    <t>KOMPLEKS KDN KUANTAN</t>
+  </si>
+  <si>
+    <t>PAHANG</t>
+  </si>
+  <si>
+    <t>PELABUHAN KUATAN</t>
+  </si>
+  <si>
+    <t>JETI PULAU TIOMAN</t>
+  </si>
+  <si>
+    <t>LT TIOMAN</t>
+  </si>
+  <si>
+    <t>LT KUANTAN</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN TEMERLOH</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN RAUB</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN PULAU TIOMAN</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN KUALA LIPIS</t>
+  </si>
+  <si>
+    <t>UTC KUANTAN</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN CAMERON HIGHLAND</t>
+  </si>
+  <si>
+    <t>SEBERANG JAYA</t>
+  </si>
+  <si>
+    <t>PULAU PINANG</t>
+  </si>
+  <si>
+    <t>BWTC PULAU PINANG</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN GEORGETOWN</t>
+  </si>
+  <si>
+    <t>TERMINAL SWETTENHAMPIER CRUISE (SPCT)</t>
+  </si>
+  <si>
+    <t>LTA BAYAN LEPAS</t>
+  </si>
+  <si>
+    <t>UTC PULAU PINANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOMPLEKS KDN IPOH </t>
+  </si>
+  <si>
+    <t>PERAK</t>
+  </si>
+  <si>
+    <t>UTC IPOH</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN LUMUT</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN TAIPING</t>
+  </si>
+  <si>
+    <t>KOMPLEKS IMIGRESEN BUKIT BERAPIT, PENGKALAN HULU</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN TELUK INTAN</t>
+  </si>
+  <si>
+    <t>LTA IPOH</t>
+  </si>
+  <si>
+    <t>HUTAN MELINTANG</t>
+  </si>
+  <si>
     <t>KOMPLEKS KDN PERLIS</t>
   </si>
   <si>
+    <t>PERLIS</t>
+  </si>
+  <si>
+    <t>KOMPLEKS CIQ PADANG BESAR</t>
+  </si>
+  <si>
+    <t>POS IMIGRESEN WANG KELIAN</t>
+  </si>
+  <si>
+    <t>UTC KANGAR</t>
+  </si>
+  <si>
+    <t>JETI KUALA PERLIS</t>
+  </si>
+  <si>
     <t>PEJABAT IMIGRESEN SHAH ALAM</t>
   </si>
   <si>
+    <t>SELANGOR</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN KUALA SELANGOR</t>
+  </si>
+  <si>
+    <t>KLIA(AMC)</t>
+  </si>
+  <si>
+    <t>KLIA2</t>
+  </si>
+  <si>
+    <t>UTC SHAH ALAM</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN KAJANG</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN KELANA JAYA</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN KUALA KUBU BARU</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN KUALA LANGAT</t>
+  </si>
+  <si>
+    <t>KLIA</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN PELABUHAN KELANG</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN PUCHONG</t>
+  </si>
+  <si>
+    <t>LTA SAAS SUBANG</t>
+  </si>
+  <si>
+    <t>PELABUHAN KELANG BARAT (KMT)</t>
+  </si>
+  <si>
+    <t>PELABUHAN KELANG BARAT (STAR CRUISE)</t>
+  </si>
+  <si>
+    <t>PELABUHAN KELANG SELATAN (BARTER TRADE)</t>
+  </si>
+  <si>
+    <t>PELABUHAN KELANG SELATAN (JETI PULAU KETAM)</t>
+  </si>
+  <si>
+    <t>PELABUHAN KELANG UTARA</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN KUALA TERENGGANU</t>
+  </si>
+  <si>
+    <t>TERENGGANU</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN BESUT</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN KUALA TERERNGGANU (PENGUATKUASA)</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN KERTEH</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN DUNGUN</t>
+  </si>
+  <si>
+    <t>UTC TERENGGANU</t>
+  </si>
+  <si>
+    <t>LT PULAU REDANG</t>
+  </si>
+  <si>
     <t>PEJABAT IMIGRESEN KOTA KINABALU</t>
   </si>
   <si>
-    <t>KOMPLEKS KDN MELAKA</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN SEREMBAN</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN SENAWANG</t>
-  </si>
-  <si>
-    <t>KOMPLEKS KDN KUANTAN</t>
-  </si>
-  <si>
-    <t>SEBERANG JAYA</t>
+    <t>SABAH</t>
+  </si>
+  <si>
+    <t>UTC KOTA KINABALU</t>
+  </si>
+  <si>
+    <t>UTC KENINGAU</t>
+  </si>
+  <si>
+    <t>UTC TAWAU</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN LAHAD DATU</t>
+  </si>
+  <si>
+    <t>ICQS LAHAD DATU</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN KENINGAU</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN KUDAT</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN RANAU</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN SANDAKAN</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN SEMPORNA</t>
+  </si>
+  <si>
+    <t>ICQ SEMPORNA</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN SIPITANG</t>
+  </si>
+  <si>
+    <t>POS KAWALAN IMIGRESEN LING PASIA,SIPITANG</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN TAWAU</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN TENOM</t>
+  </si>
+  <si>
+    <t>LT TAWAU</t>
+  </si>
+  <si>
+    <t>ICQ KUDAT</t>
+  </si>
+  <si>
+    <t>LT SANDAKAN</t>
+  </si>
+  <si>
+    <t>UNIT PENGUATKUASA LAHAD DATU</t>
+  </si>
+  <si>
+    <t>LTA KOTA KINABALU (TERMINAL 1)</t>
+  </si>
+  <si>
+    <t>LTA KOTA KINABALU (TERMINAL 2)</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN KUCHING</t>
+  </si>
+  <si>
+    <t>SARAWAK</t>
   </si>
   <si>
     <t>BAH PENGUATKUASA IMI KUCHING</t>
   </si>
   <si>
+    <t>UTC KUCHING</t>
+  </si>
+  <si>
+    <t>UTC MIRI</t>
+  </si>
+  <si>
+    <t>UTC SIBU</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN BINTULU</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN KAPIT</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN LAWAS</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN LIMBANG</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN MIRI (WISMA PERSEKUTUAN)</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN MUKAH</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN SAMARAHAN</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN SARIKEI</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN SRI AMAN</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN SIBU</t>
+  </si>
+  <si>
+    <t>KOMPLEKS ICQS BIAWAK LUNDU,KUCHING</t>
+  </si>
+  <si>
+    <t>KOMPLEKS ICQS LUBOK ANTU,LUBUK ANTU</t>
+  </si>
+  <si>
+    <t>KOMPLEKS ICQS MERAPOK ,LAWAS</t>
+  </si>
+  <si>
+    <t>KOMPLEKS ICQS SUNGAI TUJUH</t>
+  </si>
+  <si>
+    <t>KOMPLEKS ICQS TEBEDU,TEBEDU</t>
+  </si>
+  <si>
+    <t>KOMPLEKS ICQS TEDUNGAN,LIMBANG</t>
+  </si>
+  <si>
+    <t>POS KAWALAN SEMPADAN BATU LINTANG, SERI AMAN</t>
+  </si>
+  <si>
+    <t>POS KAWALAN SEMPADAN BUNAN NEGA</t>
+  </si>
+  <si>
+    <t>POS KAWALAN SEMPADAN SERIKIN,KUCHING</t>
+  </si>
+  <si>
+    <t>POS KAWALAN SEMPADAN TELOK MELANO</t>
+  </si>
+  <si>
+    <t>LT BINTULU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LT  LIMBANG</t>
+  </si>
+  <si>
+    <t>LT MIRI</t>
+  </si>
+  <si>
+    <t>LT GUNUNG MULU</t>
+  </si>
+  <si>
+    <t>LT SIBU</t>
+  </si>
+  <si>
+    <t>DERMAGA KASTAM BINTULU</t>
+  </si>
+  <si>
+    <t>DERMAGA KASTAM LAWAS</t>
+  </si>
+  <si>
+    <t>LT LAWAS</t>
+  </si>
+  <si>
+    <t>DERMAGA KASTAM LIMBANG</t>
+  </si>
+  <si>
+    <t>DERMAGA KASTAM MIRI</t>
+  </si>
+  <si>
+    <t>DERMAGA KASTAM SUNDAR</t>
+  </si>
+  <si>
+    <t>PELABUHAN SEMATAN</t>
+  </si>
+  <si>
+    <t>DEPOT IMIGRESEN SEMUJA</t>
+  </si>
+  <si>
+    <t>WILAYAH (KDN JLN DUTA)</t>
+  </si>
+  <si>
+    <t>WP KUALA LUMPUR</t>
+  </si>
+  <si>
     <t>WILAYAH PERSEKUTUAN KUALA LUMPUR</t>
   </si>
   <si>
     <t>PEJABAT IMIGRESEN WILYAH PERSEKUTUAN</t>
   </si>
   <si>
-    <t>PEJABAT IMIGRESEN KUCHING</t>
-  </si>
-  <si>
-    <t>KOMPLEKS CIQ PADANG BESAR</t>
-  </si>
-  <si>
-    <t>POS IMIGRESEN WANG KELIAN</t>
-  </si>
-  <si>
-    <t>JETI KUALA PERLIS</t>
-  </si>
-  <si>
-    <t>UTC KANGAR</t>
-  </si>
-  <si>
-    <t>KOMPLES IQCS BUKIT KAYU HITAM</t>
-  </si>
-  <si>
-    <t>POS IMIGRESEN TELAGA HARBOUR PARK</t>
-  </si>
-  <si>
-    <t>UTC KEDAH</t>
-  </si>
-  <si>
-    <t>UTC SUNGAI PETANI</t>
-  </si>
-  <si>
-    <t>KOMPLEKS KDN KEDAH</t>
-  </si>
-  <si>
-    <t>KOMPLEKS IMM KOTA PUTRA,DURIAN BURUNG</t>
-  </si>
-  <si>
-    <t>LTA LANGKAWI</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN KULIM</t>
-  </si>
-  <si>
-    <t>POS IMIGRESEN JETI KUAH</t>
-  </si>
-  <si>
-    <t>POS IMIGRESEN TANJUNG LEMBUNG</t>
-  </si>
-  <si>
-    <t>UTC PULAU PINANG</t>
-  </si>
-  <si>
-    <t>LTA BAYAN LEPAS</t>
-  </si>
-  <si>
-    <t>BWTC PULAU PINANG</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN GEORGETOWN</t>
-  </si>
-  <si>
-    <t>TERMINAL SWETTENHAMPIER CRUISE (SPCT)</t>
-  </si>
-  <si>
-    <t>UTC IPOH</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN LUMUT</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN TAIPING</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN TELUK INTAN</t>
-  </si>
-  <si>
-    <t>KOMPLEKS IMIGRESEN BUKIT BERAPIT, PENGKALAN HULU</t>
-  </si>
-  <si>
-    <t>LTA IPOH</t>
-  </si>
-  <si>
-    <t>HUTAN MELINTANG</t>
+    <t>MENATARA T.A. KL (EMGS)</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN WANGSA MAJU</t>
+  </si>
+  <si>
+    <t>UTC KERAMAT</t>
+  </si>
+  <si>
+    <t>UTC SENTUL</t>
+  </si>
+  <si>
+    <t>UTC KUALA LUMPUR</t>
+  </si>
+  <si>
+    <t>MIDA(KL SENTRAL)</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN WP LABUAN</t>
+  </si>
+  <si>
+    <t>WP LABUAN</t>
+  </si>
+  <si>
+    <t>FERI RO-RO</t>
+  </si>
+  <si>
+    <t>LT LABUAN</t>
+  </si>
+  <si>
+    <t>UTC LABUAN</t>
+  </si>
+  <si>
+    <t>PEJABAT IMIGRESEN PUTRAJAYA (MENARA IKHLAS)</t>
+  </si>
+  <si>
+    <t>WP PUTRAJAYA</t>
+  </si>
+  <si>
+    <t>IMIGRESEN PAS PELAJAR EMGS CYBERJAYA</t>
   </si>
   <si>
     <t>MDEC (CYBERJAYA)</t>
   </si>
   <si>
-    <t>IMIGRESEN PAS PELAJAR EMGS CYBERJAYA</t>
-  </si>
-  <si>
-    <t>MIDA(KL SENTRAL)</t>
-  </si>
-  <si>
-    <t>UTC KUALA LUMPUR</t>
-  </si>
-  <si>
-    <t>UTC SENTUL</t>
-  </si>
-  <si>
-    <t>UTC KERAMAT</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN WANGSA MAJU</t>
-  </si>
-  <si>
-    <t>MENATARA T.A. KL (EMGS)</t>
-  </si>
-  <si>
-    <t>UTC SHAH ALAM</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN KAJANG</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN KELANA JAYA</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN KUALA KUBU BARU</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN KUALA LANGAT</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN KUALA SELANGOR</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN PELABUHAN KELANG</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN PUCHONG</t>
-  </si>
-  <si>
-    <t>LTA SAAS SUBANG</t>
-  </si>
-  <si>
-    <t>PELABUHAN KELANG BARAT (KMT)</t>
-  </si>
-  <si>
-    <t>PELABUHAN KELANG BARAT (STAR CRUISE)</t>
-  </si>
-  <si>
-    <t>PELABUHAN KELANG SELATAN (BARTER TRADE)</t>
-  </si>
-  <si>
-    <t>PELABUHAN KELANG SELATAN (JETI PULAU KETAM)</t>
-  </si>
-  <si>
-    <t>PELABUHAN KELANG UTARA</t>
-  </si>
-  <si>
-    <t>KLIA</t>
-  </si>
-  <si>
-    <t>KLIA2</t>
-  </si>
-  <si>
-    <t>KLIA(AMC)</t>
-  </si>
-  <si>
-    <t>UTC SEREMBAN</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN JEMPOL</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN PORT DICKSON</t>
-  </si>
-  <si>
-    <t>JETI PENUMPANG PORT DICKSON</t>
-  </si>
-  <si>
-    <t>DEPOT IMIGRESEN LENGGENG</t>
-  </si>
-  <si>
-    <t>UTC MELAKA</t>
-  </si>
-  <si>
-    <t>LTA BATU BERENDAM</t>
-  </si>
-  <si>
-    <t>PELABUHAN KUALA LINGGI</t>
-  </si>
-  <si>
-    <t>PELABUHAN MELAKA</t>
-  </si>
-  <si>
-    <t>UTC JOHOR BAHRU</t>
-  </si>
-  <si>
-    <t>UTC PASIR GUDANG</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN BATU PAHAT</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN KLUANG</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN KUKUP</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN KULAI</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN MERSING</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN  MUAR</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN PAGOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PEJABAT IMIGRESEN SEGAMAT </t>
-  </si>
-  <si>
-    <t>BANGUNAN SULTAN ISKANDAR (BSI)</t>
-  </si>
-  <si>
-    <t>UNIT KAWALAN JETI PENUMPANG BANGUNAN JABATAN LAUT WILAYAH SELATAN,MUAR</t>
-  </si>
-  <si>
-    <t>DEPOT IMIGRESEN PEKAN NANAS</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN WOOTLANDS TRAIN CHECK POINT (WTCP).SINGAPURA</t>
-  </si>
-  <si>
-    <t>UTC KELANTAN</t>
-  </si>
-  <si>
-    <t>DESARU COAST</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN GUA MUSANG</t>
-  </si>
-  <si>
-    <t>WISMA YAKIN (BAHAGIAN PENGUATKUASA)</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN PASI GUDANG</t>
-  </si>
-  <si>
-    <t>KOMPLEKS ICQS BUKIT BUNGA,TANAH MERAH</t>
-  </si>
-  <si>
-    <t>KOMPLEKS ICQS PANGKALAN KUBUR</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN TANJUNG PELEPAS</t>
-  </si>
-  <si>
-    <t>KOMPLEKS ICQS RANTAU PANJANG</t>
-  </si>
-  <si>
-    <t>LT SULTAN ISMAIL PETRA</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN TANJUNG BELUNGKOR</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN PELABUHAN TOK BALI</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN TANJUNG PENGELIH</t>
-  </si>
-  <si>
-    <t>LT PULAU REDANG</t>
-  </si>
-  <si>
-    <t>UTC TERENGGANU</t>
-  </si>
-  <si>
-    <t>PELABUHAN BATU PAHAT</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN BESUT</t>
-  </si>
-  <si>
-    <t>POS IMIGRESEN STULANG LAUT</t>
-  </si>
-  <si>
-    <t>TERMINAL FERI ANTARABANGSA KUKUP</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN DUNGUN</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN KERTEH</t>
-  </si>
-  <si>
-    <t>TERMINAL FERI ANTARABANGSA  PUTERI HARBOUR</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN KUALA TERERNGGANU (PENGUATKUASA)</t>
-  </si>
-  <si>
-    <t>TERMINAL FERI MINYAK BEKU BATU PAHAT</t>
-  </si>
-  <si>
-    <t>UTC KUANTAN</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN CAMERON HIGHLAND</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN KUALA LIPIS</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN PULAU TIOMAN</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN RAUB</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN TEMERLOH</t>
-  </si>
-  <si>
-    <t>LT KUANTAN</t>
-  </si>
-  <si>
-    <t>LT TIOMAN</t>
-  </si>
-  <si>
-    <t>JETI PULAU TIOMAN</t>
-  </si>
-  <si>
-    <t>PELABUHAN KUATAN</t>
-  </si>
-  <si>
-    <t>UTC KUCHING</t>
-  </si>
-  <si>
-    <t>UTC MIRI</t>
-  </si>
-  <si>
-    <t>UTC SIBU</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN BINTULU</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN KAPIT</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN LAWAS</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN LIMBANG</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN MIRI (WISMA PERSEKUTUAN)</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN MUKAH</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN SAMARAHAN</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN SARIKEI</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN SRI AMAN</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN SIBU</t>
-  </si>
-  <si>
-    <t>KOMPLEKS ICQS BIAWAK LUNDU,KUCHING</t>
-  </si>
-  <si>
-    <t>KOMPLEKS ICQS LUBOK ANTU,LUBUK ANTU</t>
-  </si>
-  <si>
-    <t>KOMPLEKS ICQS MERAPOK ,LAWAS</t>
-  </si>
-  <si>
-    <t>KOMPLEKS ICQS SUNGAI TUJUH</t>
-  </si>
-  <si>
-    <t>KOMPLEKS ICQS TEBEDU,TEBEDU</t>
-  </si>
-  <si>
-    <t>KOMPLEKS ICQS TEDUNGAN,LIMBANG</t>
-  </si>
-  <si>
-    <t>POS KAWALAN SEMPADAN BATU LINTANG, SERI AMAN</t>
-  </si>
-  <si>
-    <t>POS KAWALAN SEMPADAN BUNAN NEGA</t>
-  </si>
-  <si>
-    <t>POS KAWALAN SEMPADAN SERIKIN,KUCHING</t>
-  </si>
-  <si>
-    <t>POS KAWALAN SEMPADAN TELOK MELANO</t>
-  </si>
-  <si>
-    <t>LT BINTULU</t>
-  </si>
-  <si>
-    <t>LT  LIMBANG</t>
-  </si>
-  <si>
-    <t>LT MIRI</t>
-  </si>
-  <si>
-    <t>LT GUNUNG MULU</t>
-  </si>
-  <si>
-    <t>LT SIBU</t>
-  </si>
-  <si>
-    <t>DERMAGA KASTAM BINTULU</t>
-  </si>
-  <si>
-    <t>DERMAGA KASTAM LAWAS</t>
-  </si>
-  <si>
-    <t>LT LAWAS</t>
-  </si>
-  <si>
-    <t>DERMAGA KASTAM LIMBANG</t>
-  </si>
-  <si>
-    <t>DERMAGA KASTAM MIRI</t>
-  </si>
-  <si>
-    <t>DERMAGA KASTAM SUNDAR</t>
-  </si>
-  <si>
-    <t>PELABUHAN SEMATAN</t>
-  </si>
-  <si>
-    <t>DEPOT IMIGRESEN SEMUJA</t>
-  </si>
-  <si>
-    <t>UTC KOTA KINABALU</t>
-  </si>
-  <si>
-    <t>UTC KENINGAU</t>
-  </si>
-  <si>
-    <t>UTC TAWAU</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN LAHAD DATU</t>
-  </si>
-  <si>
-    <t>ICQS LAHAD DATU</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN KENINGAU</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN KUDAT</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN RANAU</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN SANDAKAN</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN SEMPORNA</t>
-  </si>
-  <si>
-    <t>ICQ SEMPORNA</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN SIPITANG</t>
-  </si>
-  <si>
-    <t>POS KAWALAN IMIGRESEN LING PASIA,SIPITANG</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN TAWAU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOMPLEKS KDN IPOH </t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN KUALA TERENGGANU</t>
-  </si>
-  <si>
-    <t>ICQ KUDAT</t>
-  </si>
-  <si>
-    <t>LTA KOTA KINABALU (TERMINAL 2)</t>
-  </si>
-  <si>
-    <t>LTA KOTA KINABALU (TERMINAL 1)</t>
-  </si>
-  <si>
-    <t>LT TAWAU</t>
-  </si>
-  <si>
-    <t>LT SANDAKAN</t>
-  </si>
-  <si>
-    <t>UNIT PENGUATKUASA LAHAD DATU</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN TENOM</t>
-  </si>
-  <si>
-    <t>WILAYAH (KDN JLN DUTA)</t>
-  </si>
-  <si>
-    <t>UTC LABUAN</t>
-  </si>
-  <si>
-    <t>FERI RO-RO</t>
-  </si>
-  <si>
-    <t>LT LABUAN</t>
-  </si>
-  <si>
-    <t>JOHOR</t>
-  </si>
-  <si>
-    <t>KEDAH</t>
-  </si>
-  <si>
-    <t>KELANTAN</t>
-  </si>
-  <si>
-    <t>MELAKA</t>
-  </si>
-  <si>
-    <t>NEGERI SEMBILAN</t>
-  </si>
-  <si>
-    <t>PAHANG</t>
-  </si>
-  <si>
-    <t>PULAU PINANG</t>
-  </si>
-  <si>
-    <t>PERAK</t>
-  </si>
-  <si>
-    <t>PERLIS</t>
-  </si>
-  <si>
-    <t>SELANGOR</t>
-  </si>
-  <si>
-    <t>TERENGGANU</t>
-  </si>
-  <si>
-    <t>SABAH</t>
-  </si>
-  <si>
-    <t>SARAWAK</t>
-  </si>
-  <si>
-    <t>WP KUALA LUMPUR</t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN WP LABUAN</t>
-  </si>
-  <si>
-    <t>WP LABUAN</t>
-  </si>
-  <si>
-    <t>WP PUTRAJAYA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KOMPLEKS KDN SETIA TROPIKA </t>
-  </si>
-  <si>
-    <t>PEJABAT IMIGRESEN PUTRAJAYA (MENARA IKHLAS)</t>
+    <t>KONSULAT JENERAL MALAYSIA, JEDDAH</t>
+  </si>
+  <si>
+    <t>KONSULAT JENERAL MALAYSIA, MELBOURNE</t>
+  </si>
+  <si>
+    <t>KONSULAT JENERAL MALAYSIA, PERTH</t>
+  </si>
+  <si>
+    <t>SURUHANJAYA TINGGI MALAYSIA, CANBERRA</t>
+  </si>
+  <si>
+    <t>SURUHANJAYA TINGGI MALAYSIA, DHAKA</t>
+  </si>
+  <si>
+    <t>SURUHANJAYA TINGGI MALAYSIA, SERI BEGAWAN</t>
+  </si>
+  <si>
+    <t>KEDUTAAN BESAR MALAYSIA, BEIJING</t>
+  </si>
+  <si>
+    <t>KONSULAT JENERAL MALAYSIA, SHANGHAI</t>
+  </si>
+  <si>
+    <t>KONSULAT MALAYSIA, GHUANGZHOU</t>
+  </si>
+  <si>
+    <t>KONSULAT MALAYSIA, KUNMING</t>
+  </si>
+  <si>
+    <t>KONSULAT JENERAL MALAYSIA, HONG KONG</t>
+  </si>
+  <si>
+    <t>KEDUTAAN MALAYSIA, PHNOM PENH</t>
+  </si>
+  <si>
+    <t>KEDUTAAN MALAYSIA, JAKARTA</t>
+  </si>
+  <si>
+    <t>KONSULAT MALAYSIA, PEKAN BARU</t>
+  </si>
+  <si>
+    <t>KONSULAT MALAYSIA, PONTIANAK</t>
+  </si>
+  <si>
+    <t>KONSULAT JENERAL MALAYSIA, MEDAN</t>
+  </si>
+  <si>
+    <t>SURUHANJAYA TINGGI MALAYSIA, NEW DELHI</t>
+  </si>
+  <si>
+    <t>KONSULAT JENERAL MALAYSIA, MUMBAI</t>
+  </si>
+  <si>
+    <t>KONSULAT JENERAL MALAYSIA, CHENNAI</t>
+  </si>
+  <si>
+    <t>KEDUTAAN BESAR MALAYSIA, YANGOON</t>
+  </si>
+  <si>
+    <t>KEDUTAAN BESAR MALAYSIA, KATHMANDU</t>
+  </si>
+  <si>
+    <t>SURUHANJAYA TINGGI MALAYSIA, ISLAMABAD</t>
+  </si>
+  <si>
+    <t>KONSULAT JENERAL MALAYSIA, KARACHI</t>
+  </si>
+  <si>
+    <t>SURUHANJAYA TINGGI MALAYSIA, SINGAPURA</t>
+  </si>
+  <si>
+    <t>REPRESENTATIVE OF OFFICE, MALAYSIA, TAIPEI</t>
+  </si>
+  <si>
+    <t>SURUHANJAYA TINGGI MALAYSIA, LONDON</t>
+  </si>
+  <si>
+    <t>KONSULAT JENERAL MALAYSIA, NEW YORK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -671,34 +740,40 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left>
+        <color indexed="64"/>
+      </left>
+      <right>
+        <color indexed="64"/>
+      </right>
+      <top>
+        <color indexed="64"/>
+      </top>
+      <bottom>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal>
+        <color indexed="64"/>
+      </diagonal>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Style 1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -707,10 +782,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -845,6 +920,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -871,24 +947,25 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -949,43 +1026,36 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6272A4DD-7787-4212-99FE-E32A2508EE81}">
-  <dimension ref="A1:E189"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B76" sqref="B76"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A198">
+      <selection activeCell="A217" sqref="A217"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="64.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.71094" customWidth="1"/>
+    <col min="2" max="2" width="64.71094" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.28516" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1">
         <v>1001291</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="C1">
         <v>2</v>
@@ -994,15 +1064,15 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
         <v>1001131</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -1011,15 +1081,15 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>1001081</v>
       </c>
       <c r="B3" t="s">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>4</v>
@@ -1028,15 +1098,15 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4">
         <v>1001271</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -1045,15 +1115,15 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5">
         <v>1001161</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -1062,15 +1132,15 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6">
         <v>1001261</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -1079,15 +1149,15 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7">
         <v>1001341</v>
       </c>
       <c r="B7" t="s">
-        <v>109</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -1096,15 +1166,15 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8">
         <v>1001241</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1113,15 +1183,15 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9">
         <v>1001191</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -1130,15 +1200,15 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10">
         <v>1001091</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>4</v>
@@ -1147,15 +1217,15 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11">
         <v>1001202</v>
       </c>
       <c r="B11" t="s">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -1164,15 +1234,15 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12">
         <v>1001101</v>
       </c>
       <c r="B12" t="s">
-        <v>87</v>
+        <v>12</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -1181,15 +1251,15 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13">
         <v>1001242</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -1198,15 +1268,15 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14">
         <v>1001171</v>
       </c>
       <c r="B14" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -1215,15 +1285,15 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15">
         <v>1001231</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1232,15 +1302,15 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16">
         <v>1001141</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -1249,15 +1319,15 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17">
         <v>1001321</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -1266,15 +1336,15 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18">
         <v>1001051</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -1283,15 +1353,15 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19">
         <v>1001061</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -1300,15 +1370,15 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20">
         <v>1001371</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1317,15 +1387,15 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21">
         <v>1001071</v>
       </c>
       <c r="B21" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -1334,15 +1404,15 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22">
         <v>1001351</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>4</v>
@@ -1351,15 +1421,15 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23">
         <v>1001391</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="C23">
         <v>4</v>
@@ -1368,15 +1438,15 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24">
         <v>1001391</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -1385,15 +1455,15 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25">
         <v>1001041</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -1402,15 +1472,15 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26">
         <v>1001181</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>25</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -1419,15 +1489,15 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27">
         <v>1002011</v>
       </c>
       <c r="B27" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -1436,15 +1506,15 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28">
         <v>1002071</v>
       </c>
       <c r="B28" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>4</v>
@@ -1453,15 +1523,15 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29">
         <v>1002111</v>
       </c>
       <c r="B29" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -1470,15 +1540,15 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30">
         <v>1002051</v>
       </c>
       <c r="B30" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -1487,15 +1557,15 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31">
         <v>1002121</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -1504,15 +1574,15 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32">
         <v>1002161</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -1521,15 +1591,15 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33">
         <v>1002131</v>
       </c>
       <c r="B33" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -1538,15 +1608,15 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34">
         <v>1002041</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -1555,15 +1625,15 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35">
         <v>1002031</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -1572,15 +1642,15 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36">
         <v>1002061</v>
       </c>
       <c r="B36" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -1589,15 +1659,15 @@
         <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37">
         <v>1002141</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -1606,15 +1676,15 @@
         <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38">
         <v>1003011</v>
       </c>
       <c r="B38" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C38">
         <v>2</v>
@@ -1623,15 +1693,15 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39">
         <v>1003051</v>
       </c>
       <c r="B39" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -1640,15 +1710,15 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40">
         <v>1003041</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -1657,15 +1727,15 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41">
         <v>1003021</v>
       </c>
       <c r="B41" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -1674,15 +1744,15 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42">
         <v>1003071</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -1691,15 +1761,15 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43">
         <v>1003111</v>
       </c>
       <c r="B43" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -1708,15 +1778,15 @@
         <v>3</v>
       </c>
       <c r="E43" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44">
         <v>1003081</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="C44">
         <v>4</v>
@@ -1725,15 +1795,15 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45">
         <v>1003061</v>
       </c>
       <c r="B45" t="s">
-        <v>91</v>
+        <v>46</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -1742,15 +1812,15 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46">
         <v>1003031</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>47</v>
       </c>
       <c r="C46">
         <v>4</v>
@@ -1759,15 +1829,15 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47">
         <v>1004011</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C47">
         <v>2</v>
@@ -1776,15 +1846,15 @@
         <v>4</v>
       </c>
       <c r="E47" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48">
         <v>1004091</v>
       </c>
       <c r="B48" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -1793,15 +1863,15 @@
         <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49">
         <v>1004061</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -1810,15 +1880,15 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50">
         <v>1004021</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -1827,15 +1897,15 @@
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51">
         <v>1004031</v>
       </c>
       <c r="B51" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -1844,15 +1914,15 @@
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52">
         <v>1005011</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C52">
         <v>2</v>
@@ -1861,15 +1931,15 @@
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53">
         <v>1005081</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -1878,15 +1948,15 @@
         <v>5</v>
       </c>
       <c r="E53" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54">
         <v>1005041</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>57</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -1895,15 +1965,15 @@
         <v>5</v>
       </c>
       <c r="E54" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55">
         <v>505011</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -1912,15 +1982,15 @@
         <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56">
         <v>1005061</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -1929,15 +1999,15 @@
         <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57">
         <v>1005021</v>
       </c>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -1946,15 +2016,15 @@
         <v>5</v>
       </c>
       <c r="E57" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58">
         <v>1005091</v>
       </c>
       <c r="B58" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -1963,15 +2033,15 @@
         <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59">
         <v>1006011</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="C59">
         <v>2</v>
@@ -1980,15 +2050,15 @@
         <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60">
         <v>1006021</v>
       </c>
       <c r="B60" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -1997,15 +2067,15 @@
         <v>6</v>
       </c>
       <c r="E60" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61">
         <v>1006071</v>
       </c>
       <c r="B61" t="s">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -2014,15 +2084,15 @@
         <v>6</v>
       </c>
       <c r="E61" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62">
         <v>1006081</v>
       </c>
       <c r="B62" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -2031,15 +2101,15 @@
         <v>6</v>
       </c>
       <c r="E62" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63">
         <v>1006031</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -2048,15 +2118,15 @@
         <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64">
         <v>1006041</v>
       </c>
       <c r="B64" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -2065,15 +2135,15 @@
         <v>6</v>
       </c>
       <c r="E64" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65">
         <v>1006051</v>
       </c>
       <c r="B65" t="s">
-        <v>116</v>
+        <v>69</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -2082,15 +2152,15 @@
         <v>6</v>
       </c>
       <c r="E65" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66">
         <v>1006101</v>
       </c>
       <c r="B66" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -2099,15 +2169,15 @@
         <v>6</v>
       </c>
       <c r="E66" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67">
         <v>1006061</v>
       </c>
       <c r="B67" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -2116,15 +2186,15 @@
         <v>6</v>
       </c>
       <c r="E67" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68">
         <v>1006141</v>
       </c>
       <c r="B68" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -2133,15 +2203,15 @@
         <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69">
         <v>1006121</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="C69">
         <v>4</v>
@@ -2150,15 +2220,15 @@
         <v>6</v>
       </c>
       <c r="E69" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70">
         <v>1007041</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="C70">
         <v>2</v>
@@ -2167,15 +2237,15 @@
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71">
         <v>1007101</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -2184,15 +2254,15 @@
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72">
         <v>1007011</v>
       </c>
       <c r="B72" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -2201,15 +2271,15 @@
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73">
         <v>1007071</v>
       </c>
       <c r="B73" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -2218,15 +2288,15 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74">
         <v>1007031</v>
       </c>
       <c r="B74" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -2235,15 +2305,15 @@
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75">
         <v>1007091</v>
       </c>
       <c r="B75" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -2252,15 +2322,15 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76">
         <v>1008012</v>
       </c>
       <c r="B76" t="s">
-        <v>172</v>
+        <v>81</v>
       </c>
       <c r="C76">
         <v>2</v>
@@ -2269,15 +2339,15 @@
         <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77">
         <v>1008111</v>
       </c>
       <c r="B77" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -2286,15 +2356,15 @@
         <v>8</v>
       </c>
       <c r="E77" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78">
         <v>1008031</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -2303,15 +2373,15 @@
         <v>8</v>
       </c>
       <c r="E78" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79">
         <v>1008051</v>
       </c>
       <c r="B79" t="s">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="C79">
         <v>4</v>
@@ -2320,15 +2390,15 @@
         <v>8</v>
       </c>
       <c r="E79" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80">
         <v>1008061</v>
       </c>
       <c r="B80" t="s">
-        <v>37</v>
+        <v>86</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -2337,15 +2407,15 @@
         <v>8</v>
       </c>
       <c r="E80" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81">
       <c r="A81">
         <v>1008041</v>
       </c>
       <c r="B81" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -2354,15 +2424,15 @@
         <v>8</v>
       </c>
       <c r="E81" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82">
         <v>1008021</v>
       </c>
       <c r="B82" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -2371,15 +2441,15 @@
         <v>8</v>
       </c>
       <c r="E82" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83">
       <c r="A83">
         <v>1008081</v>
       </c>
       <c r="B83" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -2388,15 +2458,15 @@
         <v>8</v>
       </c>
       <c r="E83" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84">
       <c r="A84">
         <v>1009011</v>
       </c>
       <c r="B84" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -2405,15 +2475,15 @@
         <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85">
       <c r="A85">
         <v>1009021</v>
       </c>
       <c r="B85" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -2422,15 +2492,15 @@
         <v>9</v>
       </c>
       <c r="E85" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="86">
       <c r="A86">
         <v>1009041</v>
       </c>
       <c r="B86" t="s">
-        <v>15</v>
+        <v>93</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -2439,15 +2509,15 @@
         <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="87">
       <c r="A87">
         <v>1009071</v>
       </c>
       <c r="B87" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -2456,15 +2526,15 @@
         <v>9</v>
       </c>
       <c r="E87" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88">
       <c r="A88">
         <v>1009061</v>
       </c>
       <c r="B88" t="s">
-        <v>16</v>
+        <v>95</v>
       </c>
       <c r="C88">
         <v>4</v>
@@ -2473,15 +2543,15 @@
         <v>9</v>
       </c>
       <c r="E88" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="89">
       <c r="A89">
         <v>1010011</v>
       </c>
       <c r="B89" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -2490,15 +2560,15 @@
         <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="A90">
         <v>1010152</v>
       </c>
       <c r="B90" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -2507,15 +2577,15 @@
         <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91">
         <v>1010053</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -2524,15 +2594,15 @@
         <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92">
         <v>1010052</v>
       </c>
       <c r="B92" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -2541,15 +2611,15 @@
         <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="A93">
         <v>1010191</v>
       </c>
       <c r="B93" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -2558,15 +2628,15 @@
         <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="A94">
         <v>1010031</v>
       </c>
       <c r="B94" t="s">
-        <v>49</v>
+        <v>102</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -2575,15 +2645,15 @@
         <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="A95">
         <v>1010021</v>
       </c>
       <c r="B95" t="s">
-        <v>50</v>
+        <v>103</v>
       </c>
       <c r="C95">
         <v>4</v>
@@ -2592,15 +2662,15 @@
         <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="A96">
         <v>1010131</v>
       </c>
       <c r="B96" t="s">
-        <v>51</v>
+        <v>104</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -2609,15 +2679,15 @@
         <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97">
       <c r="A97">
         <v>1010161</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -2626,15 +2696,15 @@
         <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="98">
       <c r="A98">
         <v>1010051</v>
       </c>
       <c r="B98" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -2643,15 +2713,15 @@
         <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99">
       <c r="A99">
         <v>1010061</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="C99">
         <v>4</v>
@@ -2660,15 +2730,15 @@
         <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100">
       <c r="A100">
         <v>1010151</v>
       </c>
       <c r="B100" t="s">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="C100">
         <v>4</v>
@@ -2677,15 +2747,15 @@
         <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101">
       <c r="A101">
         <v>1010041</v>
       </c>
       <c r="B101" t="s">
-        <v>56</v>
+        <v>109</v>
       </c>
       <c r="C101">
         <v>4</v>
@@ -2694,15 +2764,15 @@
         <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102">
       <c r="A102">
         <v>1010091</v>
       </c>
       <c r="B102" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -2711,15 +2781,15 @@
         <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103">
       <c r="A103">
         <v>1010101</v>
       </c>
       <c r="B103" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -2728,15 +2798,15 @@
         <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="104">
       <c r="A104">
         <v>1010081</v>
       </c>
       <c r="B104" t="s">
-        <v>59</v>
+        <v>112</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -2745,15 +2815,15 @@
         <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="105">
       <c r="A105">
         <v>1010111</v>
       </c>
       <c r="B105" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="C105">
         <v>4</v>
@@ -2762,15 +2832,15 @@
         <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="106">
       <c r="A106">
         <v>1010071</v>
       </c>
       <c r="B106" t="s">
-        <v>61</v>
+        <v>114</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -2779,15 +2849,15 @@
         <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="107">
       <c r="A107">
         <v>1011011</v>
       </c>
       <c r="B107" t="s">
-        <v>173</v>
+        <v>115</v>
       </c>
       <c r="C107">
         <v>2</v>
@@ -2796,15 +2866,15 @@
         <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="108">
       <c r="A108">
         <v>1011071</v>
       </c>
       <c r="B108" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="C108">
         <v>4</v>
@@ -2813,15 +2883,15 @@
         <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="109">
       <c r="A109">
         <v>1011101</v>
       </c>
       <c r="B109" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="C109">
         <v>4</v>
@@ -2830,15 +2900,15 @@
         <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="110">
       <c r="A110">
         <v>1011051</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C110">
         <v>4</v>
@@ -2847,15 +2917,15 @@
         <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="111">
       <c r="A111">
         <v>1011031</v>
       </c>
       <c r="B111" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="C111">
         <v>4</v>
@@ -2864,15 +2934,15 @@
         <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="112">
       <c r="A112">
         <v>1011111</v>
       </c>
       <c r="B112" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="C112">
         <v>4</v>
@@ -2881,15 +2951,15 @@
         <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113">
       <c r="A113">
         <v>1011091</v>
       </c>
       <c r="B113" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C113">
         <v>4</v>
@@ -2898,15 +2968,15 @@
         <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="114">
       <c r="A114">
         <v>1012011</v>
       </c>
       <c r="B114" t="s">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="C114">
         <v>2</v>
@@ -2915,15 +2985,15 @@
         <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="115">
       <c r="A115">
         <v>1012301</v>
       </c>
       <c r="B115" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="C115">
         <v>4</v>
@@ -2932,15 +3002,15 @@
         <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="116">
       <c r="A116">
         <v>1012341</v>
       </c>
       <c r="B116" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="C116">
         <v>4</v>
@@ -2949,15 +3019,15 @@
         <v>12</v>
       </c>
       <c r="E116" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117">
       <c r="A117">
         <v>1012321</v>
       </c>
       <c r="B117" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="C117">
         <v>4</v>
@@ -2966,15 +3036,15 @@
         <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="118">
       <c r="A118">
         <v>1012351</v>
       </c>
       <c r="B118" t="s">
-        <v>161</v>
+        <v>128</v>
       </c>
       <c r="C118">
         <v>4</v>
@@ -2983,15 +3053,15 @@
         <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="119">
       <c r="A119">
         <v>1012361</v>
       </c>
       <c r="B119" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C119">
         <v>4</v>
@@ -3000,15 +3070,15 @@
         <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="120">
       <c r="A120">
         <v>1012171</v>
       </c>
       <c r="B120" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C120">
         <v>4</v>
@@ -3017,15 +3087,15 @@
         <v>12</v>
       </c>
       <c r="E120" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121">
       <c r="A121">
         <v>1012121</v>
       </c>
       <c r="B121" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="C121">
         <v>4</v>
@@ -3034,15 +3104,15 @@
         <v>12</v>
       </c>
       <c r="E121" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="122">
       <c r="A122">
         <v>1012281</v>
       </c>
       <c r="B122" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="C122">
         <v>4</v>
@@ -3051,15 +3121,15 @@
         <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="123">
       <c r="A123">
         <v>1012091</v>
       </c>
       <c r="B123" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="C123">
         <v>4</v>
@@ -3068,15 +3138,15 @@
         <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="124">
       <c r="A124">
         <v>1012081</v>
       </c>
       <c r="B124" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="C124">
         <v>4</v>
@@ -3085,15 +3155,15 @@
         <v>12</v>
       </c>
       <c r="E124" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125">
       <c r="A125">
         <v>1012271</v>
       </c>
       <c r="B125" t="s">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="C125">
         <v>4</v>
@@ -3102,15 +3172,15 @@
         <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="126">
       <c r="A126">
         <v>1012141</v>
       </c>
       <c r="B126" t="s">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="C126">
         <v>4</v>
@@ -3119,15 +3189,15 @@
         <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127">
       <c r="A127">
         <v>1012221</v>
       </c>
       <c r="B127" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="C127">
         <v>4</v>
@@ -3136,15 +3206,15 @@
         <v>12</v>
       </c>
       <c r="E127" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128">
       <c r="A128">
         <v>1012041</v>
       </c>
       <c r="B128" t="s">
-        <v>171</v>
+        <v>138</v>
       </c>
       <c r="C128">
         <v>4</v>
@@ -3153,15 +3223,15 @@
         <v>12</v>
       </c>
       <c r="E128" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="129">
       <c r="A129">
         <v>1012161</v>
       </c>
       <c r="B129" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="C129">
         <v>4</v>
@@ -3170,15 +3240,15 @@
         <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="130">
       <c r="A130">
         <v>1012051</v>
       </c>
       <c r="B130" t="s">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="C130">
         <v>4</v>
@@ -3187,15 +3257,15 @@
         <v>12</v>
       </c>
       <c r="E130" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="131">
       <c r="A131">
         <v>1012311</v>
       </c>
       <c r="B131" t="s">
-        <v>174</v>
+        <v>141</v>
       </c>
       <c r="C131">
         <v>4</v>
@@ -3204,15 +3274,15 @@
         <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="132">
       <c r="A132">
         <v>1012101</v>
       </c>
       <c r="B132" t="s">
-        <v>178</v>
+        <v>142</v>
       </c>
       <c r="C132">
         <v>4</v>
@@ -3221,15 +3291,15 @@
         <v>12</v>
       </c>
       <c r="E132" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="133">
       <c r="A133">
         <v>1012071</v>
       </c>
       <c r="B133" t="s">
-        <v>179</v>
+        <v>143</v>
       </c>
       <c r="C133">
         <v>4</v>
@@ -3238,15 +3308,15 @@
         <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="134">
       <c r="A134">
         <v>1012021</v>
       </c>
       <c r="B134" t="s">
-        <v>176</v>
+        <v>144</v>
       </c>
       <c r="C134">
         <v>4</v>
@@ -3255,15 +3325,15 @@
         <v>12</v>
       </c>
       <c r="E134" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="135">
       <c r="A135">
         <v>1012022</v>
       </c>
       <c r="B135" t="s">
-        <v>175</v>
+        <v>145</v>
       </c>
       <c r="C135">
         <v>4</v>
@@ -3272,15 +3342,15 @@
         <v>12</v>
       </c>
       <c r="E135" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="136">
       <c r="A136">
         <v>1013011</v>
       </c>
       <c r="B136" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
       <c r="C136">
         <v>2</v>
@@ -3289,15 +3359,15 @@
         <v>13</v>
       </c>
       <c r="E136" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="137">
       <c r="A137">
         <v>1013821</v>
       </c>
       <c r="B137" t="s">
-        <v>10</v>
+        <v>148</v>
       </c>
       <c r="C137">
         <v>4</v>
@@ -3306,15 +3376,15 @@
         <v>13</v>
       </c>
       <c r="E137" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="138">
       <c r="A138">
         <v>1013831</v>
       </c>
       <c r="B138" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C138">
         <v>4</v>
@@ -3323,15 +3393,15 @@
         <v>13</v>
       </c>
       <c r="E138" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="139">
       <c r="A139">
         <v>1013841</v>
       </c>
       <c r="B139" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="C139">
         <v>4</v>
@@ -3340,15 +3410,15 @@
         <v>13</v>
       </c>
       <c r="E139" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="140">
       <c r="A140">
         <v>1013851</v>
       </c>
       <c r="B140" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="C140">
         <v>4</v>
@@ -3357,15 +3427,15 @@
         <v>13</v>
       </c>
       <c r="E140" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="141">
       <c r="A141">
         <v>1013101</v>
       </c>
       <c r="B141" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="C141">
         <v>4</v>
@@ -3374,15 +3444,15 @@
         <v>13</v>
       </c>
       <c r="E141" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="142">
       <c r="A142">
         <v>1013711</v>
       </c>
       <c r="B142" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C142">
         <v>4</v>
@@ -3391,15 +3461,15 @@
         <v>13</v>
       </c>
       <c r="E142" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="143">
       <c r="A143">
         <v>1013151</v>
       </c>
       <c r="B143" t="s">
-        <v>127</v>
+        <v>154</v>
       </c>
       <c r="C143">
         <v>4</v>
@@ -3408,15 +3478,15 @@
         <v>13</v>
       </c>
       <c r="E143" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144">
       <c r="A144">
         <v>1013141</v>
       </c>
       <c r="B144" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="C144">
         <v>4</v>
@@ -3425,15 +3495,15 @@
         <v>13</v>
       </c>
       <c r="E144" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="145">
       <c r="A145">
         <v>1013171</v>
       </c>
       <c r="B145" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="C145">
         <v>4</v>
@@ -3442,15 +3512,15 @@
         <v>13</v>
       </c>
       <c r="E145" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="146">
       <c r="A146">
         <v>1013811</v>
       </c>
       <c r="B146" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C146">
         <v>4</v>
@@ -3459,15 +3529,15 @@
         <v>13</v>
       </c>
       <c r="E146" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="147">
       <c r="A147">
         <v>1013801</v>
       </c>
       <c r="B147" t="s">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="C147">
         <v>4</v>
@@ -3476,15 +3546,15 @@
         <v>13</v>
       </c>
       <c r="E147" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148">
       <c r="A148">
         <v>1013201</v>
       </c>
       <c r="B148" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="C148">
         <v>4</v>
@@ -3493,15 +3563,15 @@
         <v>13</v>
       </c>
       <c r="E148" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="149">
       <c r="A149">
         <v>1013131</v>
       </c>
       <c r="B149" t="s">
-        <v>133</v>
+        <v>160</v>
       </c>
       <c r="C149">
         <v>4</v>
@@ -3510,15 +3580,15 @@
         <v>13</v>
       </c>
       <c r="E149" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150">
       <c r="A150">
         <v>1013111</v>
       </c>
       <c r="B150" t="s">
-        <v>134</v>
+        <v>161</v>
       </c>
       <c r="C150">
         <v>4</v>
@@ -3527,15 +3597,15 @@
         <v>13</v>
       </c>
       <c r="E150" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="151">
       <c r="A151">
         <v>1013491</v>
       </c>
       <c r="B151" t="s">
-        <v>135</v>
+        <v>162</v>
       </c>
       <c r="C151">
         <v>4</v>
@@ -3544,15 +3614,15 @@
         <v>13</v>
       </c>
       <c r="E151" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="152">
       <c r="A152">
         <v>1013481</v>
       </c>
       <c r="B152" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="C152">
         <v>4</v>
@@ -3561,15 +3631,15 @@
         <v>13</v>
       </c>
       <c r="E152" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="153">
       <c r="A153">
         <v>1013471</v>
       </c>
       <c r="B153" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="C153">
         <v>4</v>
@@ -3578,15 +3648,15 @@
         <v>13</v>
       </c>
       <c r="E153" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="154">
       <c r="A154">
         <v>1013461</v>
       </c>
       <c r="B154" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="C154">
         <v>4</v>
@@ -3595,15 +3665,15 @@
         <v>13</v>
       </c>
       <c r="E154" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="155">
       <c r="A155">
         <v>1013441</v>
       </c>
       <c r="B155" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="C155">
         <v>4</v>
@@ -3612,15 +3682,15 @@
         <v>13</v>
       </c>
       <c r="E155" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="156">
       <c r="A156">
         <v>1013541</v>
       </c>
       <c r="B156" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="C156">
         <v>4</v>
@@ -3629,15 +3699,15 @@
         <v>13</v>
       </c>
       <c r="E156" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="157">
       <c r="A157">
         <v>1013531</v>
       </c>
       <c r="B157" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="C157">
         <v>4</v>
@@ -3646,15 +3716,15 @@
         <v>13</v>
       </c>
       <c r="E157" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="158">
       <c r="A158">
         <v>1013521</v>
       </c>
       <c r="B158" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C158">
         <v>4</v>
@@ -3663,15 +3733,15 @@
         <v>13</v>
       </c>
       <c r="E158" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="159">
       <c r="A159">
         <v>1013511</v>
       </c>
       <c r="B159" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="C159">
         <v>4</v>
@@ -3680,15 +3750,15 @@
         <v>13</v>
       </c>
       <c r="E159" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="160">
       <c r="A160">
         <v>1013881</v>
       </c>
       <c r="B160" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="C160">
         <v>4</v>
@@ -3697,15 +3767,15 @@
         <v>13</v>
       </c>
       <c r="E160" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="161">
       <c r="A161">
         <v>1013261</v>
       </c>
       <c r="B161" t="s">
-        <v>145</v>
+        <v>172</v>
       </c>
       <c r="C161">
         <v>4</v>
@@ -3714,15 +3784,15 @@
         <v>13</v>
       </c>
       <c r="E161" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="162">
       <c r="A162">
         <v>1013741</v>
       </c>
       <c r="B162" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="C162">
         <v>4</v>
@@ -3731,15 +3801,15 @@
         <v>13</v>
       </c>
       <c r="E162" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="163">
       <c r="A163">
         <v>1013321</v>
       </c>
       <c r="B163" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="C163">
         <v>4</v>
@@ -3748,15 +3818,15 @@
         <v>13</v>
       </c>
       <c r="E163" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="164">
       <c r="A164">
         <v>1013721</v>
       </c>
       <c r="B164" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="C164">
         <v>4</v>
@@ -3765,15 +3835,15 @@
         <v>13</v>
       </c>
       <c r="E164" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="165">
       <c r="A165">
         <v>1013181</v>
       </c>
       <c r="B165" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="C165">
         <v>4</v>
@@ -3782,15 +3852,15 @@
         <v>13</v>
       </c>
       <c r="E165" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="166">
       <c r="A166">
         <v>1013291</v>
       </c>
       <c r="B166" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="C166">
         <v>4</v>
@@ -3799,15 +3869,15 @@
         <v>13</v>
       </c>
       <c r="E166" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="167">
       <c r="A167">
         <v>1013281</v>
       </c>
       <c r="B167" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="C167">
         <v>4</v>
@@ -3816,15 +3886,15 @@
         <v>13</v>
       </c>
       <c r="E167" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="168">
       <c r="A168">
         <v>1013901</v>
       </c>
       <c r="B168" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="C168">
         <v>4</v>
@@ -3833,15 +3903,15 @@
         <v>13</v>
       </c>
       <c r="E168" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="169">
       <c r="A169">
         <v>1013251</v>
       </c>
       <c r="B169" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="C169">
         <v>4</v>
@@ -3850,15 +3920,15 @@
         <v>13</v>
       </c>
       <c r="E169" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="170">
       <c r="A170">
         <v>1013331</v>
       </c>
       <c r="B170" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="C170">
         <v>4</v>
@@ -3867,15 +3937,15 @@
         <v>13</v>
       </c>
       <c r="E170" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="171">
       <c r="A171">
         <v>1013161</v>
       </c>
       <c r="B171" t="s">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="C171">
         <v>4</v>
@@ -3884,15 +3954,15 @@
         <v>13</v>
       </c>
       <c r="E171" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="172">
       <c r="A172">
         <v>1013601</v>
       </c>
       <c r="B172" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="C172">
         <v>4</v>
@@ -3901,15 +3971,15 @@
         <v>13</v>
       </c>
       <c r="E172" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="173">
       <c r="A173">
         <v>513021</v>
       </c>
       <c r="B173" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="C173">
         <v>4</v>
@@ -3918,15 +3988,15 @@
         <v>13</v>
       </c>
       <c r="E173" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="174">
       <c r="A174">
         <v>1014022</v>
       </c>
       <c r="B174" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C174">
         <v>2</v>
@@ -3935,15 +4005,15 @@
         <v>14</v>
       </c>
       <c r="E174" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="175">
       <c r="A175">
         <v>1014015</v>
       </c>
       <c r="B175" t="s">
-        <v>11</v>
+        <v>187</v>
       </c>
       <c r="C175">
         <v>4</v>
@@ -3952,15 +4022,15 @@
         <v>14</v>
       </c>
       <c r="E175" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="176">
       <c r="A176">
         <v>1014021</v>
       </c>
       <c r="B176" t="s">
-        <v>12</v>
+        <v>188</v>
       </c>
       <c r="C176">
         <v>4</v>
@@ -3969,15 +4039,15 @@
         <v>14</v>
       </c>
       <c r="E176" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="177">
       <c r="A177">
         <v>1014042</v>
       </c>
       <c r="B177" t="s">
-        <v>47</v>
+        <v>189</v>
       </c>
       <c r="C177">
         <v>4</v>
@@ -3986,15 +4056,15 @@
         <v>14</v>
       </c>
       <c r="E177" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="178">
       <c r="A178">
         <v>1014231</v>
       </c>
       <c r="B178" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="C178">
         <v>4</v>
@@ -4003,15 +4073,15 @@
         <v>14</v>
       </c>
       <c r="E178" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="179">
       <c r="A179">
         <v>1014301</v>
       </c>
       <c r="B179" t="s">
-        <v>45</v>
+        <v>191</v>
       </c>
       <c r="C179">
         <v>4</v>
@@ -4020,15 +4090,15 @@
         <v>14</v>
       </c>
       <c r="E179" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="180">
       <c r="A180">
         <v>1014131</v>
       </c>
       <c r="B180" t="s">
-        <v>44</v>
+        <v>192</v>
       </c>
       <c r="C180">
         <v>4</v>
@@ -4037,15 +4107,15 @@
         <v>14</v>
       </c>
       <c r="E180" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="181">
       <c r="A181">
         <v>1014121</v>
       </c>
       <c r="B181" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="C181">
         <v>4</v>
@@ -4054,15 +4124,15 @@
         <v>14</v>
       </c>
       <c r="E181" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="182">
       <c r="A182">
         <v>1014041</v>
       </c>
       <c r="B182" t="s">
-        <v>42</v>
+        <v>194</v>
       </c>
       <c r="C182">
         <v>4</v>
@@ -4071,15 +4141,15 @@
         <v>14</v>
       </c>
       <c r="E182" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="183">
       <c r="A183">
         <v>1015011</v>
       </c>
       <c r="B183" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C183">
         <v>2</v>
@@ -4088,15 +4158,15 @@
         <v>15</v>
       </c>
       <c r="E183" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="184">
       <c r="A184">
         <v>1015041</v>
       </c>
       <c r="B184" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="C184">
         <v>4</v>
@@ -4105,15 +4175,15 @@
         <v>15</v>
       </c>
       <c r="E184" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="185">
       <c r="A185">
         <v>1015021</v>
       </c>
       <c r="B185" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="C185">
         <v>4</v>
@@ -4122,15 +4192,15 @@
         <v>15</v>
       </c>
       <c r="E185" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="186">
       <c r="A186">
         <v>1015051</v>
       </c>
       <c r="B186" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="C186">
         <v>4</v>
@@ -4139,15 +4209,15 @@
         <v>15</v>
       </c>
       <c r="E186" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="187">
       <c r="A187">
         <v>1021221</v>
       </c>
       <c r="B187" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C187">
         <v>2</v>
@@ -4159,12 +4229,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188">
       <c r="A188">
         <v>1014321</v>
       </c>
       <c r="B188" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="C188">
         <v>4</v>
@@ -4176,12 +4246,12 @@
         <v>201</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189">
       <c r="A189">
         <v>1014023</v>
       </c>
       <c r="B189" t="s">
-        <v>40</v>
+        <v>203</v>
       </c>
       <c r="C189">
         <v>4</v>
@@ -4193,7 +4263,303 @@
         <v>201</v>
       </c>
     </row>
+    <row r="190">
+      <c r="A190">
+        <v>9000001</v>
+      </c>
+      <c r="B190" t="s">
+        <v>204</v>
+      </c>
+      <c r="D190" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>9000002</v>
+      </c>
+      <c r="B191" t="s">
+        <v>205</v>
+      </c>
+      <c r="D191">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <v>9000003</v>
+      </c>
+      <c r="B192" t="s">
+        <v>206</v>
+      </c>
+      <c r="D192">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <v>9000004</v>
+      </c>
+      <c r="B193" t="s">
+        <v>207</v>
+      </c>
+      <c r="D193">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <v>9000005</v>
+      </c>
+      <c r="B194" t="s">
+        <v>208</v>
+      </c>
+      <c r="D194">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <v>9000006</v>
+      </c>
+      <c r="B195" t="s">
+        <v>209</v>
+      </c>
+      <c r="D195">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <v>9000007</v>
+      </c>
+      <c r="B196" t="s">
+        <v>210</v>
+      </c>
+      <c r="D196">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <v>9000008</v>
+      </c>
+      <c r="B197" t="s">
+        <v>211</v>
+      </c>
+      <c r="D197">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <v>9000009</v>
+      </c>
+      <c r="B198" t="s">
+        <v>212</v>
+      </c>
+      <c r="D198">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <v>9000010</v>
+      </c>
+      <c r="B199" t="s">
+        <v>213</v>
+      </c>
+      <c r="D199">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <v>9000011</v>
+      </c>
+      <c r="B200" t="s">
+        <v>214</v>
+      </c>
+      <c r="D200">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <v>9000012</v>
+      </c>
+      <c r="B201" t="s">
+        <v>215</v>
+      </c>
+      <c r="D201">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <v>9000013</v>
+      </c>
+      <c r="B202" t="s">
+        <v>216</v>
+      </c>
+      <c r="D202">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <v>9000014</v>
+      </c>
+      <c r="B203" t="s">
+        <v>217</v>
+      </c>
+      <c r="D203">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <v>9000015</v>
+      </c>
+      <c r="B204" t="s">
+        <v>218</v>
+      </c>
+      <c r="D204">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <v>9000016</v>
+      </c>
+      <c r="B205" t="s">
+        <v>219</v>
+      </c>
+      <c r="D205">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <v>9000017</v>
+      </c>
+      <c r="B206" t="s">
+        <v>220</v>
+      </c>
+      <c r="D206">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <v>9000018</v>
+      </c>
+      <c r="B207" t="s">
+        <v>221</v>
+      </c>
+      <c r="D207">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <v>9000019</v>
+      </c>
+      <c r="B208" t="s">
+        <v>222</v>
+      </c>
+      <c r="D208">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <v>9000020</v>
+      </c>
+      <c r="B209" t="s">
+        <v>223</v>
+      </c>
+      <c r="D209">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <v>9000021</v>
+      </c>
+      <c r="B210" t="s">
+        <v>224</v>
+      </c>
+      <c r="D210">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <v>9000022</v>
+      </c>
+      <c r="B211" t="s">
+        <v>225</v>
+      </c>
+      <c r="D211">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <v>9000023</v>
+      </c>
+      <c r="B212" t="s">
+        <v>226</v>
+      </c>
+      <c r="D212">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <v>9000024</v>
+      </c>
+      <c r="B213" t="s">
+        <v>227</v>
+      </c>
+      <c r="D213">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <v>9000025</v>
+      </c>
+      <c r="B214" t="s">
+        <v>228</v>
+      </c>
+      <c r="D214">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <v>9000026</v>
+      </c>
+      <c r="B215" t="s">
+        <v>229</v>
+      </c>
+      <c r="D215">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <v>9000027</v>
+      </c>
+      <c r="B216" t="s">
+        <v>230</v>
+      </c>
+      <c r="D216">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database/seeders/excel/branch_niise.xlsx
+++ b/database/seeders/excel/branch_niise.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\niise_helpdesk\be\database\seeders\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201AA9E5-6C96-40F8-8650-82495249532D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Senarai PIN dan Cawangan" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="204">
   <si>
     <t xml:space="preserve">KOMPLEKS KDN SETIA TROPIKA </t>
   </si>
@@ -41,7 +43,7 @@
     <t>TERMINAL FERI ANTARABANGSA KUKUP</t>
   </si>
   <si>
-    <t xml:space="preserve">TERMINAL FERI ANTARABANGSA  PUTERI HARBOUR</t>
+    <t>TERMINAL FERI ANTARABANGSA  PUTERI HARBOUR</t>
   </si>
   <si>
     <t>TERMINAL FERI MINYAK BEKU BATU PAHAT</t>
@@ -74,7 +76,7 @@
     <t>PEJABAT IMIGRESEN PAGOH</t>
   </si>
   <si>
-    <t xml:space="preserve">PEJABAT IMIGRESEN  MUAR</t>
+    <t>PEJABAT IMIGRESEN  MUAR</t>
   </si>
   <si>
     <t>PEJABAT IMIGRESEN MERSING</t>
@@ -539,7 +541,7 @@
     <t>LT BINTULU</t>
   </si>
   <si>
-    <t xml:space="preserve">LT  LIMBANG</t>
+    <t>LT  LIMBANG</t>
   </si>
   <si>
     <t>LT MIRI</t>
@@ -630,94 +632,13 @@
   </si>
   <si>
     <t>MDEC (CYBERJAYA)</t>
-  </si>
-  <si>
-    <t>KONSULAT JENERAL MALAYSIA, JEDDAH</t>
-  </si>
-  <si>
-    <t>KONSULAT JENERAL MALAYSIA, MELBOURNE</t>
-  </si>
-  <si>
-    <t>KONSULAT JENERAL MALAYSIA, PERTH</t>
-  </si>
-  <si>
-    <t>SURUHANJAYA TINGGI MALAYSIA, CANBERRA</t>
-  </si>
-  <si>
-    <t>SURUHANJAYA TINGGI MALAYSIA, DHAKA</t>
-  </si>
-  <si>
-    <t>SURUHANJAYA TINGGI MALAYSIA, SERI BEGAWAN</t>
-  </si>
-  <si>
-    <t>KEDUTAAN BESAR MALAYSIA, BEIJING</t>
-  </si>
-  <si>
-    <t>KONSULAT JENERAL MALAYSIA, SHANGHAI</t>
-  </si>
-  <si>
-    <t>KONSULAT MALAYSIA, GHUANGZHOU</t>
-  </si>
-  <si>
-    <t>KONSULAT MALAYSIA, KUNMING</t>
-  </si>
-  <si>
-    <t>KONSULAT JENERAL MALAYSIA, HONG KONG</t>
-  </si>
-  <si>
-    <t>KEDUTAAN MALAYSIA, PHNOM PENH</t>
-  </si>
-  <si>
-    <t>KEDUTAAN MALAYSIA, JAKARTA</t>
-  </si>
-  <si>
-    <t>KONSULAT MALAYSIA, PEKAN BARU</t>
-  </si>
-  <si>
-    <t>KONSULAT MALAYSIA, PONTIANAK</t>
-  </si>
-  <si>
-    <t>KONSULAT JENERAL MALAYSIA, MEDAN</t>
-  </si>
-  <si>
-    <t>SURUHANJAYA TINGGI MALAYSIA, NEW DELHI</t>
-  </si>
-  <si>
-    <t>KONSULAT JENERAL MALAYSIA, MUMBAI</t>
-  </si>
-  <si>
-    <t>KONSULAT JENERAL MALAYSIA, CHENNAI</t>
-  </si>
-  <si>
-    <t>KEDUTAAN BESAR MALAYSIA, YANGOON</t>
-  </si>
-  <si>
-    <t>KEDUTAAN BESAR MALAYSIA, KATHMANDU</t>
-  </si>
-  <si>
-    <t>SURUHANJAYA TINGGI MALAYSIA, ISLAMABAD</t>
-  </si>
-  <si>
-    <t>KONSULAT JENERAL MALAYSIA, KARACHI</t>
-  </si>
-  <si>
-    <t>SURUHANJAYA TINGGI MALAYSIA, SINGAPURA</t>
-  </si>
-  <si>
-    <t>REPRESENTATIVE OF OFFICE, MALAYSIA, TAIPEI</t>
-  </si>
-  <si>
-    <t>SURUHANJAYA TINGGI MALAYSIA, LONDON</t>
-  </si>
-  <si>
-    <t>KONSULAT JENERAL MALAYSIA, NEW YORK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -728,7 +649,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -741,39 +662,42 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
-      <left>
-        <color indexed="64"/>
-      </left>
-      <right>
-        <color indexed="64"/>
-      </right>
-      <top>
-        <color indexed="64"/>
-      </top>
-      <bottom>
-        <color indexed="64"/>
-      </bottom>
-      <diagonal>
-        <color indexed="64"/>
-      </diagonal>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Style 1" xfId="1"/>
+    <cellStyle name="Style 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -782,10 +706,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1031,26 +955,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A198">
-      <selection activeCell="A217" sqref="A217"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="A190" sqref="A190:XFD216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.71094" customWidth="1"/>
-    <col min="2" max="2" width="64.71094" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="24.28516" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1001291</v>
       </c>
@@ -1067,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001131</v>
       </c>
@@ -1084,7 +1011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001081</v>
       </c>
@@ -1101,7 +1028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1001271</v>
       </c>
@@ -1118,7 +1045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1001161</v>
       </c>
@@ -1135,7 +1062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1001261</v>
       </c>
@@ -1152,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1001341</v>
       </c>
@@ -1169,7 +1096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1001241</v>
       </c>
@@ -1186,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1001191</v>
       </c>
@@ -1203,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1001091</v>
       </c>
@@ -1220,7 +1147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1001202</v>
       </c>
@@ -1237,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1001101</v>
       </c>
@@ -1254,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1001242</v>
       </c>
@@ -1271,7 +1198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1001171</v>
       </c>
@@ -1288,7 +1215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1001231</v>
       </c>
@@ -1305,7 +1232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1001141</v>
       </c>
@@ -1322,7 +1249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1001321</v>
       </c>
@@ -1339,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1001051</v>
       </c>
@@ -1356,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1001061</v>
       </c>
@@ -1373,7 +1300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1001371</v>
       </c>
@@ -1390,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1001071</v>
       </c>
@@ -1407,7 +1334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1001351</v>
       </c>
@@ -1424,7 +1351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1001391</v>
       </c>
@@ -1441,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1001391</v>
       </c>
@@ -1458,7 +1385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1001041</v>
       </c>
@@ -1475,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1001181</v>
       </c>
@@ -1492,7 +1419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1002011</v>
       </c>
@@ -1509,7 +1436,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1002071</v>
       </c>
@@ -1526,7 +1453,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1002111</v>
       </c>
@@ -1543,7 +1470,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1002051</v>
       </c>
@@ -1560,7 +1487,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1002121</v>
       </c>
@@ -1577,7 +1504,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1002161</v>
       </c>
@@ -1594,7 +1521,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1002131</v>
       </c>
@@ -1611,7 +1538,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1002041</v>
       </c>
@@ -1628,7 +1555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1002031</v>
       </c>
@@ -1645,7 +1572,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1002061</v>
       </c>
@@ -1662,7 +1589,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1002141</v>
       </c>
@@ -1679,7 +1606,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1003011</v>
       </c>
@@ -1696,7 +1623,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1003051</v>
       </c>
@@ -1713,7 +1640,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1003041</v>
       </c>
@@ -1730,7 +1657,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1003021</v>
       </c>
@@ -1747,7 +1674,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1003071</v>
       </c>
@@ -1764,7 +1691,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1003111</v>
       </c>
@@ -1781,7 +1708,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1003081</v>
       </c>
@@ -1798,7 +1725,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1003061</v>
       </c>
@@ -1815,7 +1742,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1003031</v>
       </c>
@@ -1832,7 +1759,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1004011</v>
       </c>
@@ -1849,7 +1776,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1004091</v>
       </c>
@@ -1866,7 +1793,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1004061</v>
       </c>
@@ -1883,7 +1810,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1004021</v>
       </c>
@@ -1900,7 +1827,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1004031</v>
       </c>
@@ -1917,7 +1844,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1005011</v>
       </c>
@@ -1934,7 +1861,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1005081</v>
       </c>
@@ -1951,7 +1878,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1005041</v>
       </c>
@@ -1968,7 +1895,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>505011</v>
       </c>
@@ -1985,7 +1912,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1005061</v>
       </c>
@@ -2002,7 +1929,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1005021</v>
       </c>
@@ -2019,7 +1946,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1005091</v>
       </c>
@@ -2036,7 +1963,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1006011</v>
       </c>
@@ -2053,7 +1980,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1006021</v>
       </c>
@@ -2070,7 +1997,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1006071</v>
       </c>
@@ -2087,7 +2014,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1006081</v>
       </c>
@@ -2104,7 +2031,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1006031</v>
       </c>
@@ -2121,7 +2048,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1006041</v>
       </c>
@@ -2138,7 +2065,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1006051</v>
       </c>
@@ -2155,7 +2082,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1006101</v>
       </c>
@@ -2172,7 +2099,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1006061</v>
       </c>
@@ -2189,7 +2116,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1006141</v>
       </c>
@@ -2206,7 +2133,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1006121</v>
       </c>
@@ -2223,7 +2150,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1007041</v>
       </c>
@@ -2240,7 +2167,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1007101</v>
       </c>
@@ -2257,7 +2184,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1007011</v>
       </c>
@@ -2274,7 +2201,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1007071</v>
       </c>
@@ -2291,7 +2218,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1007031</v>
       </c>
@@ -2308,7 +2235,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1007091</v>
       </c>
@@ -2325,7 +2252,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1008012</v>
       </c>
@@ -2342,7 +2269,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1008111</v>
       </c>
@@ -2359,7 +2286,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1008031</v>
       </c>
@@ -2376,7 +2303,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1008051</v>
       </c>
@@ -2393,7 +2320,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1008061</v>
       </c>
@@ -2410,7 +2337,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1008041</v>
       </c>
@@ -2427,7 +2354,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1008021</v>
       </c>
@@ -2444,7 +2371,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1008081</v>
       </c>
@@ -2461,7 +2388,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1009011</v>
       </c>
@@ -2478,7 +2405,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1009021</v>
       </c>
@@ -2495,7 +2422,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1009041</v>
       </c>
@@ -2512,7 +2439,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1009071</v>
       </c>
@@ -2529,7 +2456,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1009061</v>
       </c>
@@ -2546,7 +2473,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1010011</v>
       </c>
@@ -2563,7 +2490,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1010152</v>
       </c>
@@ -2580,7 +2507,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1010053</v>
       </c>
@@ -2597,7 +2524,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1010052</v>
       </c>
@@ -2614,7 +2541,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1010191</v>
       </c>
@@ -2631,7 +2558,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1010031</v>
       </c>
@@ -2648,7 +2575,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1010021</v>
       </c>
@@ -2665,7 +2592,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1010131</v>
       </c>
@@ -2682,7 +2609,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1010161</v>
       </c>
@@ -2699,7 +2626,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1010051</v>
       </c>
@@ -2716,7 +2643,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1010061</v>
       </c>
@@ -2733,7 +2660,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1010151</v>
       </c>
@@ -2750,7 +2677,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1010041</v>
       </c>
@@ -2767,7 +2694,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1010091</v>
       </c>
@@ -2784,7 +2711,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1010101</v>
       </c>
@@ -2801,7 +2728,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1010081</v>
       </c>
@@ -2818,7 +2745,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1010111</v>
       </c>
@@ -2835,7 +2762,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1010071</v>
       </c>
@@ -2852,7 +2779,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1011011</v>
       </c>
@@ -2869,7 +2796,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1011071</v>
       </c>
@@ -2886,7 +2813,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1011101</v>
       </c>
@@ -2903,7 +2830,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1011051</v>
       </c>
@@ -2920,7 +2847,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1011031</v>
       </c>
@@ -2937,7 +2864,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1011111</v>
       </c>
@@ -2954,7 +2881,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1011091</v>
       </c>
@@ -2971,7 +2898,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1012011</v>
       </c>
@@ -2988,7 +2915,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1012301</v>
       </c>
@@ -3005,7 +2932,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1012341</v>
       </c>
@@ -3022,7 +2949,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1012321</v>
       </c>
@@ -3039,7 +2966,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1012351</v>
       </c>
@@ -3056,7 +2983,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1012361</v>
       </c>
@@ -3073,7 +3000,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1012171</v>
       </c>
@@ -3090,7 +3017,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1012121</v>
       </c>
@@ -3107,7 +3034,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1012281</v>
       </c>
@@ -3124,7 +3051,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1012091</v>
       </c>
@@ -3141,7 +3068,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1012081</v>
       </c>
@@ -3158,7 +3085,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1012271</v>
       </c>
@@ -3175,7 +3102,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1012141</v>
       </c>
@@ -3192,7 +3119,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1012221</v>
       </c>
@@ -3209,7 +3136,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1012041</v>
       </c>
@@ -3226,7 +3153,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1012161</v>
       </c>
@@ -3243,7 +3170,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1012051</v>
       </c>
@@ -3260,7 +3187,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1012311</v>
       </c>
@@ -3277,7 +3204,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1012101</v>
       </c>
@@ -3294,7 +3221,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1012071</v>
       </c>
@@ -3311,7 +3238,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1012021</v>
       </c>
@@ -3328,7 +3255,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1012022</v>
       </c>
@@ -3345,7 +3272,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1013011</v>
       </c>
@@ -3362,7 +3289,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1013821</v>
       </c>
@@ -3379,7 +3306,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1013831</v>
       </c>
@@ -3396,7 +3323,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1013841</v>
       </c>
@@ -3413,7 +3340,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1013851</v>
       </c>
@@ -3430,7 +3357,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1013101</v>
       </c>
@@ -3447,7 +3374,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1013711</v>
       </c>
@@ -3464,7 +3391,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1013151</v>
       </c>
@@ -3481,7 +3408,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1013141</v>
       </c>
@@ -3498,7 +3425,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1013171</v>
       </c>
@@ -3515,7 +3442,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1013811</v>
       </c>
@@ -3532,7 +3459,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1013801</v>
       </c>
@@ -3549,7 +3476,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1013201</v>
       </c>
@@ -3566,7 +3493,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1013131</v>
       </c>
@@ -3583,7 +3510,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1013111</v>
       </c>
@@ -3600,7 +3527,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1013491</v>
       </c>
@@ -3617,7 +3544,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1013481</v>
       </c>
@@ -3634,7 +3561,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1013471</v>
       </c>
@@ -3651,7 +3578,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1013461</v>
       </c>
@@ -3668,7 +3595,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1013441</v>
       </c>
@@ -3685,7 +3612,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1013541</v>
       </c>
@@ -3702,7 +3629,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1013531</v>
       </c>
@@ -3719,7 +3646,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1013521</v>
       </c>
@@ -3736,7 +3663,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1013511</v>
       </c>
@@ -3753,7 +3680,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1013881</v>
       </c>
@@ -3770,7 +3697,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1013261</v>
       </c>
@@ -3787,7 +3714,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1013741</v>
       </c>
@@ -3804,7 +3731,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1013321</v>
       </c>
@@ -3821,7 +3748,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1013721</v>
       </c>
@@ -3838,7 +3765,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1013181</v>
       </c>
@@ -3855,7 +3782,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1013291</v>
       </c>
@@ -3872,7 +3799,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1013281</v>
       </c>
@@ -3889,7 +3816,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1013901</v>
       </c>
@@ -3906,7 +3833,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1013251</v>
       </c>
@@ -3923,7 +3850,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1013331</v>
       </c>
@@ -3940,7 +3867,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1013161</v>
       </c>
@@ -3957,7 +3884,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1013601</v>
       </c>
@@ -3974,7 +3901,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>513021</v>
       </c>
@@ -3991,7 +3918,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1014022</v>
       </c>
@@ -4008,7 +3935,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1014015</v>
       </c>
@@ -4025,7 +3952,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1014021</v>
       </c>
@@ -4042,7 +3969,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1014042</v>
       </c>
@@ -4059,7 +3986,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1014231</v>
       </c>
@@ -4076,7 +4003,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1014301</v>
       </c>
@@ -4093,7 +4020,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1014131</v>
       </c>
@@ -4110,7 +4037,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1014121</v>
       </c>
@@ -4127,7 +4054,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1014041</v>
       </c>
@@ -4144,7 +4071,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1015011</v>
       </c>
@@ -4161,7 +4088,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1015041</v>
       </c>
@@ -4178,7 +4105,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1015021</v>
       </c>
@@ -4195,7 +4122,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1015051</v>
       </c>
@@ -4212,7 +4139,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1021221</v>
       </c>
@@ -4229,7 +4156,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1014321</v>
       </c>
@@ -4246,7 +4173,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1014023</v>
       </c>
@@ -4263,303 +4190,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190">
-        <v>9000001</v>
-      </c>
-      <c r="B190" t="s">
-        <v>204</v>
-      </c>
-      <c r="D190" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191">
-        <v>9000002</v>
-      </c>
-      <c r="B191" t="s">
-        <v>205</v>
-      </c>
-      <c r="D191">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192">
-        <v>9000003</v>
-      </c>
-      <c r="B192" t="s">
-        <v>206</v>
-      </c>
-      <c r="D192">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193">
-        <v>9000004</v>
-      </c>
-      <c r="B193" t="s">
-        <v>207</v>
-      </c>
-      <c r="D193">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194">
-        <v>9000005</v>
-      </c>
-      <c r="B194" t="s">
-        <v>208</v>
-      </c>
-      <c r="D194">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195">
-        <v>9000006</v>
-      </c>
-      <c r="B195" t="s">
-        <v>209</v>
-      </c>
-      <c r="D195">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196">
-        <v>9000007</v>
-      </c>
-      <c r="B196" t="s">
-        <v>210</v>
-      </c>
-      <c r="D196">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197">
-        <v>9000008</v>
-      </c>
-      <c r="B197" t="s">
-        <v>211</v>
-      </c>
-      <c r="D197">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198">
-        <v>9000009</v>
-      </c>
-      <c r="B198" t="s">
-        <v>212</v>
-      </c>
-      <c r="D198">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199">
-        <v>9000010</v>
-      </c>
-      <c r="B199" t="s">
-        <v>213</v>
-      </c>
-      <c r="D199">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200">
-        <v>9000011</v>
-      </c>
-      <c r="B200" t="s">
-        <v>214</v>
-      </c>
-      <c r="D200">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201">
-        <v>9000012</v>
-      </c>
-      <c r="B201" t="s">
-        <v>215</v>
-      </c>
-      <c r="D201">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202">
-        <v>9000013</v>
-      </c>
-      <c r="B202" t="s">
-        <v>216</v>
-      </c>
-      <c r="D202">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203">
-        <v>9000014</v>
-      </c>
-      <c r="B203" t="s">
-        <v>217</v>
-      </c>
-      <c r="D203">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204">
-        <v>9000015</v>
-      </c>
-      <c r="B204" t="s">
-        <v>218</v>
-      </c>
-      <c r="D204">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205">
-        <v>9000016</v>
-      </c>
-      <c r="B205" t="s">
-        <v>219</v>
-      </c>
-      <c r="D205">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206">
-        <v>9000017</v>
-      </c>
-      <c r="B206" t="s">
-        <v>220</v>
-      </c>
-      <c r="D206">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207">
-        <v>9000018</v>
-      </c>
-      <c r="B207" t="s">
-        <v>221</v>
-      </c>
-      <c r="D207">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208">
-        <v>9000019</v>
-      </c>
-      <c r="B208" t="s">
-        <v>222</v>
-      </c>
-      <c r="D208">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209">
-        <v>9000020</v>
-      </c>
-      <c r="B209" t="s">
-        <v>223</v>
-      </c>
-      <c r="D209">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210">
-        <v>9000021</v>
-      </c>
-      <c r="B210" t="s">
-        <v>224</v>
-      </c>
-      <c r="D210">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211">
-        <v>9000022</v>
-      </c>
-      <c r="B211" t="s">
-        <v>225</v>
-      </c>
-      <c r="D211">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212">
-        <v>9000023</v>
-      </c>
-      <c r="B212" t="s">
-        <v>226</v>
-      </c>
-      <c r="D212">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213">
-        <v>9000024</v>
-      </c>
-      <c r="B213" t="s">
-        <v>227</v>
-      </c>
-      <c r="D213">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214">
-        <v>9000025</v>
-      </c>
-      <c r="B214" t="s">
-        <v>228</v>
-      </c>
-      <c r="D214">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215">
-        <v>9000026</v>
-      </c>
-      <c r="B215" t="s">
-        <v>229</v>
-      </c>
-      <c r="D215">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216">
-        <v>9000027</v>
-      </c>
-      <c r="B216" t="s">
-        <v>230</v>
-      </c>
-      <c r="D216">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/database/seeders/excel/branch_niise.xlsx
+++ b/database/seeders/excel/branch_niise.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\ifics_be\database\seeders\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmadnajmibinsidek/Developer/niise-helpdesk/backend/database/seeders/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201AA9E5-6C96-40F8-8650-82495249532D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F35A12-5FB8-0C43-A768-BC5785D2F59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="16480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Senarai PIN dan Cawangan" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="209">
   <si>
     <t xml:space="preserve">KOMPLEKS KDN SETIA TROPIKA </t>
   </si>
@@ -632,6 +632,21 @@
   </si>
   <si>
     <t>MDEC (CYBERJAYA)</t>
+  </si>
+  <si>
+    <t>Awam</t>
+  </si>
+  <si>
+    <t>JIM PUTRAJAYA (NICC)</t>
+  </si>
+  <si>
+    <t>DRC</t>
+  </si>
+  <si>
+    <t>KOMPLEKS SULTAN ABU BAKAR (KSAB)</t>
+  </si>
+  <si>
+    <t>DC - PDSA</t>
   </si>
 </sst>
 </file>
@@ -650,6 +665,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -962,13 +978,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E189"/>
+  <dimension ref="A1:E194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="A190" sqref="A190:XFD216"/>
+    <sheetView tabSelected="1" topLeftCell="A179" workbookViewId="0">
+      <selection activeCell="E196" sqref="E196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.6640625" customWidth="1"/>
     <col min="2" max="2" width="64.6640625" customWidth="1"/>
@@ -977,7 +993,7 @@
     <col min="5" max="5" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1001291</v>
       </c>
@@ -994,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1001131</v>
       </c>
@@ -1011,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1001081</v>
       </c>
@@ -1028,7 +1044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1001271</v>
       </c>
@@ -1045,7 +1061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1001161</v>
       </c>
@@ -1062,7 +1078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1001261</v>
       </c>
@@ -1079,7 +1095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1001341</v>
       </c>
@@ -1096,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1001241</v>
       </c>
@@ -1113,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1001191</v>
       </c>
@@ -1130,7 +1146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1001091</v>
       </c>
@@ -1147,7 +1163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1001202</v>
       </c>
@@ -1164,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1001101</v>
       </c>
@@ -1181,7 +1197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1001242</v>
       </c>
@@ -1198,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1001171</v>
       </c>
@@ -1215,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1001231</v>
       </c>
@@ -1232,7 +1248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1001141</v>
       </c>
@@ -1249,7 +1265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1001321</v>
       </c>
@@ -1266,7 +1282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1001051</v>
       </c>
@@ -1283,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1001061</v>
       </c>
@@ -1300,7 +1316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1001371</v>
       </c>
@@ -1317,7 +1333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1001071</v>
       </c>
@@ -1334,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1001351</v>
       </c>
@@ -1351,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1001391</v>
       </c>
@@ -1368,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1001391</v>
       </c>
@@ -1385,7 +1401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1001041</v>
       </c>
@@ -1402,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1001181</v>
       </c>
@@ -1419,7 +1435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1002011</v>
       </c>
@@ -1436,7 +1452,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1002071</v>
       </c>
@@ -1453,7 +1469,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1002111</v>
       </c>
@@ -1470,7 +1486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1002051</v>
       </c>
@@ -1487,7 +1503,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1002121</v>
       </c>
@@ -1504,7 +1520,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1002161</v>
       </c>
@@ -1521,7 +1537,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1002131</v>
       </c>
@@ -1538,7 +1554,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1002041</v>
       </c>
@@ -1555,7 +1571,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1002031</v>
       </c>
@@ -1572,7 +1588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1002061</v>
       </c>
@@ -1589,7 +1605,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1002141</v>
       </c>
@@ -1606,7 +1622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1003011</v>
       </c>
@@ -1623,7 +1639,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1003051</v>
       </c>
@@ -1640,7 +1656,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1003041</v>
       </c>
@@ -1657,7 +1673,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1003021</v>
       </c>
@@ -1674,7 +1690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1003071</v>
       </c>
@@ -1691,7 +1707,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1003111</v>
       </c>
@@ -1708,7 +1724,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1003081</v>
       </c>
@@ -1725,7 +1741,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1003061</v>
       </c>
@@ -1742,7 +1758,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1003031</v>
       </c>
@@ -1759,7 +1775,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1004011</v>
       </c>
@@ -1776,7 +1792,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1004091</v>
       </c>
@@ -1793,7 +1809,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1004061</v>
       </c>
@@ -1810,7 +1826,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1004021</v>
       </c>
@@ -1827,7 +1843,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1004031</v>
       </c>
@@ -1844,7 +1860,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1005011</v>
       </c>
@@ -1861,7 +1877,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1005081</v>
       </c>
@@ -1878,7 +1894,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1005041</v>
       </c>
@@ -1895,7 +1911,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>505011</v>
       </c>
@@ -1912,7 +1928,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1005061</v>
       </c>
@@ -1929,7 +1945,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1005021</v>
       </c>
@@ -1946,7 +1962,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1005091</v>
       </c>
@@ -1963,7 +1979,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1006011</v>
       </c>
@@ -1980,7 +1996,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1006021</v>
       </c>
@@ -1997,7 +2013,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1006071</v>
       </c>
@@ -2014,7 +2030,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1006081</v>
       </c>
@@ -2031,7 +2047,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1006031</v>
       </c>
@@ -2048,7 +2064,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1006041</v>
       </c>
@@ -2065,7 +2081,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1006051</v>
       </c>
@@ -2082,7 +2098,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1006101</v>
       </c>
@@ -2099,7 +2115,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1006061</v>
       </c>
@@ -2116,7 +2132,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1006141</v>
       </c>
@@ -2133,7 +2149,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1006121</v>
       </c>
@@ -2150,7 +2166,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1007041</v>
       </c>
@@ -2167,7 +2183,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1007101</v>
       </c>
@@ -2184,7 +2200,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1007011</v>
       </c>
@@ -2201,7 +2217,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1007071</v>
       </c>
@@ -2218,7 +2234,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1007031</v>
       </c>
@@ -2235,7 +2251,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1007091</v>
       </c>
@@ -2252,7 +2268,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1008012</v>
       </c>
@@ -2269,7 +2285,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1008111</v>
       </c>
@@ -2286,7 +2302,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1008031</v>
       </c>
@@ -2303,7 +2319,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1008051</v>
       </c>
@@ -2320,7 +2336,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1008061</v>
       </c>
@@ -2337,7 +2353,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1008041</v>
       </c>
@@ -2354,7 +2370,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1008021</v>
       </c>
@@ -2371,7 +2387,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1008081</v>
       </c>
@@ -2388,7 +2404,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1009011</v>
       </c>
@@ -2405,7 +2421,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1009021</v>
       </c>
@@ -2422,7 +2438,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1009041</v>
       </c>
@@ -2439,7 +2455,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1009071</v>
       </c>
@@ -2456,7 +2472,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1009061</v>
       </c>
@@ -2473,7 +2489,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1010011</v>
       </c>
@@ -2490,7 +2506,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1010152</v>
       </c>
@@ -2507,7 +2523,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1010053</v>
       </c>
@@ -2524,7 +2540,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1010052</v>
       </c>
@@ -2541,7 +2557,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1010191</v>
       </c>
@@ -2558,7 +2574,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1010031</v>
       </c>
@@ -2575,7 +2591,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1010021</v>
       </c>
@@ -2592,7 +2608,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1010131</v>
       </c>
@@ -2609,7 +2625,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1010161</v>
       </c>
@@ -2626,7 +2642,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1010051</v>
       </c>
@@ -2643,7 +2659,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1010061</v>
       </c>
@@ -2660,7 +2676,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1010151</v>
       </c>
@@ -2677,7 +2693,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>1010041</v>
       </c>
@@ -2694,7 +2710,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1010091</v>
       </c>
@@ -2711,7 +2727,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>1010101</v>
       </c>
@@ -2728,7 +2744,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>1010081</v>
       </c>
@@ -2745,7 +2761,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1010111</v>
       </c>
@@ -2762,7 +2778,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>1010071</v>
       </c>
@@ -2779,7 +2795,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>1011011</v>
       </c>
@@ -2796,7 +2812,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1011071</v>
       </c>
@@ -2813,7 +2829,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>1011101</v>
       </c>
@@ -2830,7 +2846,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>1011051</v>
       </c>
@@ -2847,7 +2863,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>1011031</v>
       </c>
@@ -2864,7 +2880,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>1011111</v>
       </c>
@@ -2881,7 +2897,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>1011091</v>
       </c>
@@ -2898,7 +2914,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1012011</v>
       </c>
@@ -2915,7 +2931,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1012301</v>
       </c>
@@ -2932,7 +2948,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>1012341</v>
       </c>
@@ -2949,7 +2965,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>1012321</v>
       </c>
@@ -2966,7 +2982,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1012351</v>
       </c>
@@ -2983,7 +2999,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>1012361</v>
       </c>
@@ -3000,7 +3016,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1012171</v>
       </c>
@@ -3017,7 +3033,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1012121</v>
       </c>
@@ -3034,7 +3050,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1012281</v>
       </c>
@@ -3051,7 +3067,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1012091</v>
       </c>
@@ -3068,7 +3084,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1012081</v>
       </c>
@@ -3085,7 +3101,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1012271</v>
       </c>
@@ -3102,7 +3118,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>1012141</v>
       </c>
@@ -3119,7 +3135,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>1012221</v>
       </c>
@@ -3136,7 +3152,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>1012041</v>
       </c>
@@ -3153,7 +3169,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1012161</v>
       </c>
@@ -3170,7 +3186,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1012051</v>
       </c>
@@ -3187,7 +3203,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>1012311</v>
       </c>
@@ -3204,7 +3220,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1012101</v>
       </c>
@@ -3221,7 +3237,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>1012071</v>
       </c>
@@ -3238,7 +3254,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>1012021</v>
       </c>
@@ -3255,7 +3271,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1012022</v>
       </c>
@@ -3272,7 +3288,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>1013011</v>
       </c>
@@ -3289,7 +3305,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1013821</v>
       </c>
@@ -3306,7 +3322,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1013831</v>
       </c>
@@ -3323,7 +3339,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>1013841</v>
       </c>
@@ -3340,7 +3356,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1013851</v>
       </c>
@@ -3357,7 +3373,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>1013101</v>
       </c>
@@ -3374,7 +3390,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>1013711</v>
       </c>
@@ -3391,7 +3407,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1013151</v>
       </c>
@@ -3408,7 +3424,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1013141</v>
       </c>
@@ -3425,7 +3441,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>1013171</v>
       </c>
@@ -3442,7 +3458,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1013811</v>
       </c>
@@ -3459,7 +3475,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1013801</v>
       </c>
@@ -3476,7 +3492,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1013201</v>
       </c>
@@ -3493,7 +3509,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>1013131</v>
       </c>
@@ -3510,7 +3526,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>1013111</v>
       </c>
@@ -3527,7 +3543,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1013491</v>
       </c>
@@ -3544,7 +3560,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>1013481</v>
       </c>
@@ -3561,7 +3577,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1013471</v>
       </c>
@@ -3578,7 +3594,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>1013461</v>
       </c>
@@ -3595,7 +3611,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1013441</v>
       </c>
@@ -3612,7 +3628,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1013541</v>
       </c>
@@ -3629,7 +3645,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>1013531</v>
       </c>
@@ -3646,7 +3662,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>1013521</v>
       </c>
@@ -3663,7 +3679,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1013511</v>
       </c>
@@ -3680,7 +3696,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1013881</v>
       </c>
@@ -3697,7 +3713,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1013261</v>
       </c>
@@ -3714,7 +3730,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1013741</v>
       </c>
@@ -3731,7 +3747,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>1013321</v>
       </c>
@@ -3748,7 +3764,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1013721</v>
       </c>
@@ -3765,7 +3781,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1013181</v>
       </c>
@@ -3782,7 +3798,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1013291</v>
       </c>
@@ -3799,7 +3815,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1013281</v>
       </c>
@@ -3816,7 +3832,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>1013901</v>
       </c>
@@ -3833,7 +3849,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1013251</v>
       </c>
@@ -3850,7 +3866,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1013331</v>
       </c>
@@ -3867,7 +3883,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1013161</v>
       </c>
@@ -3884,7 +3900,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1013601</v>
       </c>
@@ -3901,7 +3917,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>513021</v>
       </c>
@@ -3918,7 +3934,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>1014022</v>
       </c>
@@ -3935,7 +3951,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>1014015</v>
       </c>
@@ -3952,7 +3968,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>1014021</v>
       </c>
@@ -3969,7 +3985,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>1014042</v>
       </c>
@@ -3986,7 +4002,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1014231</v>
       </c>
@@ -4003,7 +4019,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>1014301</v>
       </c>
@@ -4020,7 +4036,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>1014131</v>
       </c>
@@ -4037,7 +4053,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>1014121</v>
       </c>
@@ -4054,7 +4070,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>1014041</v>
       </c>
@@ -4071,7 +4087,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>1015011</v>
       </c>
@@ -4088,7 +4104,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1015041</v>
       </c>
@@ -4105,7 +4121,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>1015021</v>
       </c>
@@ -4122,7 +4138,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>1015051</v>
       </c>
@@ -4139,7 +4155,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>1021221</v>
       </c>
@@ -4156,7 +4172,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>1014321</v>
       </c>
@@ -4173,7 +4189,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>1014023</v>
       </c>
@@ -4188,6 +4204,73 @@
       </c>
       <c r="E189" t="s">
         <v>201</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A190">
+        <v>1000000</v>
+      </c>
+      <c r="B190" t="s">
+        <v>204</v>
+      </c>
+      <c r="C190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A191">
+        <v>1000001</v>
+      </c>
+      <c r="B191" t="s">
+        <v>205</v>
+      </c>
+      <c r="C191">
+        <v>2</v>
+      </c>
+      <c r="D191">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A192">
+        <v>1000002</v>
+      </c>
+      <c r="B192" t="s">
+        <v>206</v>
+      </c>
+      <c r="C192">
+        <v>2</v>
+      </c>
+      <c r="D192">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193">
+        <v>1000003</v>
+      </c>
+      <c r="B193" t="s">
+        <v>207</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+      <c r="D193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>1000004</v>
+      </c>
+      <c r="B194" t="s">
+        <v>208</v>
+      </c>
+      <c r="C194">
+        <v>2</v>
+      </c>
+      <c r="D194">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
